--- a/lease/data/info_box_TPE.xlsx
+++ b/lease/data/info_box_TPE.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="lease_info_box_data" sheetId="1" r:id="rId1"/>
+    <sheet name="lease_NTC_location" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11726" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11705" uniqueCount="1906">
   <si>
     <t>post_id</t>
   </si>
@@ -166,30 +166,30 @@
     <t>34坪</t>
   </si>
   <si>
+    <t>28坪</t>
+  </si>
+  <si>
+    <t>9坪</t>
+  </si>
+  <si>
+    <t>7坪</t>
+  </si>
+  <si>
+    <t>79.7坪</t>
+  </si>
+  <si>
+    <t>69.08坪</t>
+  </si>
+  <si>
+    <t>36坪</t>
+  </si>
+  <si>
+    <t>5坪</t>
+  </si>
+  <si>
     <t>40坪</t>
   </si>
   <si>
-    <t>28坪</t>
-  </si>
-  <si>
-    <t>9坪</t>
-  </si>
-  <si>
-    <t>7坪</t>
-  </si>
-  <si>
-    <t>79.7坪</t>
-  </si>
-  <si>
-    <t>69.08坪</t>
-  </si>
-  <si>
-    <t>36坪</t>
-  </si>
-  <si>
-    <t>5坪</t>
-  </si>
-  <si>
     <t>16坪</t>
   </si>
   <si>
@@ -1984,702 +1984,702 @@
     <t>76坪</t>
   </si>
   <si>
+    <t>146坪</t>
+  </si>
+  <si>
+    <t>655坪</t>
+  </si>
+  <si>
+    <t>63.89坪</t>
+  </si>
+  <si>
+    <t>231坪</t>
+  </si>
+  <si>
+    <t>80.6坪</t>
+  </si>
+  <si>
+    <t>117.32坪</t>
+  </si>
+  <si>
+    <t>63.92坪</t>
+  </si>
+  <si>
+    <t>96.28坪</t>
+  </si>
+  <si>
+    <t>17.86坪</t>
+  </si>
+  <si>
+    <t>30.18坪</t>
+  </si>
+  <si>
+    <t>198坪</t>
+  </si>
+  <si>
+    <t>28.42坪</t>
+  </si>
+  <si>
+    <t>56.88坪</t>
+  </si>
+  <si>
+    <t>85.27坪</t>
+  </si>
+  <si>
+    <t>67.78坪</t>
+  </si>
+  <si>
+    <t>19.81坪</t>
+  </si>
+  <si>
+    <t>450坪</t>
+  </si>
+  <si>
+    <t>238坪</t>
+  </si>
+  <si>
+    <t>61.59坪</t>
+  </si>
+  <si>
+    <t>26.3坪</t>
+  </si>
+  <si>
+    <t>66.91坪</t>
+  </si>
+  <si>
+    <t>29.5坪</t>
+  </si>
+  <si>
+    <t>1636坪</t>
+  </si>
+  <si>
+    <t>214坪</t>
+  </si>
+  <si>
+    <t>23.65坪</t>
+  </si>
+  <si>
+    <t>88.44坪</t>
+  </si>
+  <si>
+    <t>103坪</t>
+  </si>
+  <si>
+    <t>18.19坪</t>
+  </si>
+  <si>
+    <t>44.93坪</t>
+  </si>
+  <si>
+    <t>47.64坪</t>
+  </si>
+  <si>
+    <t>91.43坪</t>
+  </si>
+  <si>
+    <t>90.59坪</t>
+  </si>
+  <si>
+    <t>34.42坪</t>
+  </si>
+  <si>
+    <t>64.75坪</t>
+  </si>
+  <si>
+    <t>40.4坪</t>
+  </si>
+  <si>
+    <t>12.52坪</t>
+  </si>
+  <si>
+    <t>227坪</t>
+  </si>
+  <si>
+    <t>29.7坪</t>
+  </si>
+  <si>
+    <t>235坪</t>
+  </si>
+  <si>
+    <t>10.25坪</t>
+  </si>
+  <si>
+    <t>50.79坪</t>
+  </si>
+  <si>
+    <t>28.15坪</t>
+  </si>
+  <si>
+    <t>93坪</t>
+  </si>
+  <si>
+    <t>24.52坪</t>
+  </si>
+  <si>
+    <t>16.5坪</t>
+  </si>
+  <si>
+    <t>26.8坪</t>
+  </si>
+  <si>
+    <t>755坪</t>
+  </si>
+  <si>
+    <t>28.13坪</t>
+  </si>
+  <si>
+    <t>29.35坪</t>
+  </si>
+  <si>
+    <t>8.29坪</t>
+  </si>
+  <si>
+    <t>56.39坪</t>
+  </si>
+  <si>
+    <t>44.06坪</t>
+  </si>
+  <si>
+    <t>58.02坪</t>
+  </si>
+  <si>
+    <t>30.42坪</t>
+  </si>
+  <si>
+    <t>43.61坪</t>
+  </si>
+  <si>
+    <t>66.24坪</t>
+  </si>
+  <si>
+    <t>261.4坪</t>
+  </si>
+  <si>
+    <t>29.52坪</t>
+  </si>
+  <si>
+    <t>21.74坪</t>
+  </si>
+  <si>
+    <t>18.97坪</t>
+  </si>
+  <si>
+    <t>27.11坪</t>
+  </si>
+  <si>
+    <t>49.38坪</t>
+  </si>
+  <si>
+    <t>54.64坪</t>
+  </si>
+  <si>
+    <t>114.56坪</t>
+  </si>
+  <si>
+    <t>62.61坪</t>
+  </si>
+  <si>
+    <t>109.65坪</t>
+  </si>
+  <si>
+    <t>26.86坪</t>
+  </si>
+  <si>
+    <t>301.74坪</t>
+  </si>
+  <si>
+    <t>82.82坪</t>
+  </si>
+  <si>
+    <t>24.45坪</t>
+  </si>
+  <si>
+    <t>22.39坪</t>
+  </si>
+  <si>
+    <t>52.44坪</t>
+  </si>
+  <si>
+    <t>33.14坪</t>
+  </si>
+  <si>
+    <t>29.84坪</t>
+  </si>
+  <si>
+    <t>101.44坪</t>
+  </si>
+  <si>
+    <t>34.02坪</t>
+  </si>
+  <si>
+    <t>9.27坪</t>
+  </si>
+  <si>
+    <t>24.61坪</t>
+  </si>
+  <si>
+    <t>19.02坪</t>
+  </si>
+  <si>
+    <t>52.33坪</t>
+  </si>
+  <si>
+    <t>33.23坪</t>
+  </si>
+  <si>
+    <t>28.1坪</t>
+  </si>
+  <si>
+    <t>34.23坪</t>
+  </si>
+  <si>
+    <t>28.73坪</t>
+  </si>
+  <si>
+    <t>24.05坪</t>
+  </si>
+  <si>
+    <t>81.93坪</t>
+  </si>
+  <si>
+    <t>34.39坪</t>
+  </si>
+  <si>
+    <t>31.81坪</t>
+  </si>
+  <si>
+    <t>32.22坪</t>
+  </si>
+  <si>
+    <t>217坪</t>
+  </si>
+  <si>
+    <t>190坪</t>
+  </si>
+  <si>
+    <t>45.6坪</t>
+  </si>
+  <si>
+    <t>1140坪</t>
+  </si>
+  <si>
+    <t>580坪</t>
+  </si>
+  <si>
+    <t>57.03坪</t>
+  </si>
+  <si>
+    <t>21.19坪</t>
+  </si>
+  <si>
+    <t>46.9坪</t>
+  </si>
+  <si>
+    <t>18.62坪</t>
+  </si>
+  <si>
+    <t>36.98坪</t>
+  </si>
+  <si>
+    <t>215坪</t>
+  </si>
+  <si>
+    <t>207坪</t>
+  </si>
+  <si>
+    <t>9.15坪</t>
+  </si>
+  <si>
+    <t>53.94坪</t>
+  </si>
+  <si>
+    <t>27.72坪</t>
+  </si>
+  <si>
+    <t>17.96坪</t>
+  </si>
+  <si>
+    <t>67.22坪</t>
+  </si>
+  <si>
+    <t>13.08坪</t>
+  </si>
+  <si>
+    <t>17.9坪</t>
+  </si>
+  <si>
+    <t>28.26坪</t>
+  </si>
+  <si>
+    <t>43.27坪</t>
+  </si>
+  <si>
+    <t>50.07坪</t>
+  </si>
+  <si>
+    <t>91坪</t>
+  </si>
+  <si>
+    <t>110.63坪</t>
+  </si>
+  <si>
+    <t>8.33坪</t>
+  </si>
+  <si>
+    <t>85.3坪</t>
+  </si>
+  <si>
+    <t>68.16坪</t>
+  </si>
+  <si>
+    <t>156坪</t>
+  </si>
+  <si>
+    <t>122坪</t>
+  </si>
+  <si>
+    <t>122.04坪</t>
+  </si>
+  <si>
+    <t>70.67坪</t>
+  </si>
+  <si>
+    <t>30.49坪</t>
+  </si>
+  <si>
+    <t>31.06坪</t>
+  </si>
+  <si>
+    <t>37.29坪</t>
+  </si>
+  <si>
+    <t>82.3坪</t>
+  </si>
+  <si>
+    <t>25.37坪</t>
+  </si>
+  <si>
+    <t>259.59坪</t>
+  </si>
+  <si>
+    <t>152.99坪</t>
+  </si>
+  <si>
+    <t>307坪</t>
+  </si>
+  <si>
+    <t>45.42坪</t>
+  </si>
+  <si>
+    <t>25.09坪</t>
+  </si>
+  <si>
+    <t>51.2坪</t>
+  </si>
+  <si>
+    <t>73.01坪</t>
+  </si>
+  <si>
+    <t>49.47坪</t>
+  </si>
+  <si>
+    <t>22.91坪</t>
+  </si>
+  <si>
+    <t>370坪</t>
+  </si>
+  <si>
+    <t>94.39坪</t>
+  </si>
+  <si>
+    <t>23.41坪</t>
+  </si>
+  <si>
+    <t>41.18坪</t>
+  </si>
+  <si>
+    <t>363坪</t>
+  </si>
+  <si>
+    <t>28.87坪</t>
+  </si>
+  <si>
+    <t>19.6坪</t>
+  </si>
+  <si>
+    <t>218.6坪</t>
+  </si>
+  <si>
+    <t>95.94坪</t>
+  </si>
+  <si>
+    <t>38.37坪</t>
+  </si>
+  <si>
+    <t>29.57坪</t>
+  </si>
+  <si>
+    <t>142.96坪</t>
+  </si>
+  <si>
+    <t>51.06坪</t>
+  </si>
+  <si>
+    <t>246.86坪</t>
+  </si>
+  <si>
+    <t>31.31坪</t>
+  </si>
+  <si>
+    <t>79.29坪</t>
+  </si>
+  <si>
+    <t>107.19坪</t>
+  </si>
+  <si>
+    <t>122.32坪</t>
+  </si>
+  <si>
+    <t>771.03坪</t>
+  </si>
+  <si>
+    <t>34.6坪</t>
+  </si>
+  <si>
+    <t>54.79坪</t>
+  </si>
+  <si>
+    <t>30.987坪</t>
+  </si>
+  <si>
+    <t>47.45坪</t>
+  </si>
+  <si>
+    <t>223坪</t>
+  </si>
+  <si>
+    <t>18.7坪</t>
+  </si>
+  <si>
+    <t>212.14坪</t>
+  </si>
+  <si>
+    <t>95.13坪</t>
+  </si>
+  <si>
+    <t>259坪</t>
+  </si>
+  <si>
+    <t>178坪</t>
+  </si>
+  <si>
+    <t>40.9坪</t>
+  </si>
+  <si>
+    <t>36.58坪</t>
+  </si>
+  <si>
+    <t>25.685坪</t>
+  </si>
+  <si>
+    <t>3.72坪</t>
+  </si>
+  <si>
+    <t>39.23坪</t>
+  </si>
+  <si>
+    <t>20.69坪</t>
+  </si>
+  <si>
+    <t>21.1坪</t>
+  </si>
+  <si>
+    <t>115.66坪</t>
+  </si>
+  <si>
+    <t>36.92坪</t>
+  </si>
+  <si>
+    <t>32.39坪</t>
+  </si>
+  <si>
+    <t>85.225坪</t>
+  </si>
+  <si>
+    <t>66.23坪</t>
+  </si>
+  <si>
+    <t>47.28坪</t>
+  </si>
+  <si>
+    <t>15.5坪</t>
+  </si>
+  <si>
+    <t>25.8坪</t>
+  </si>
+  <si>
+    <t>22.78坪</t>
+  </si>
+  <si>
+    <t>106.56坪</t>
+  </si>
+  <si>
+    <t>35.35坪</t>
+  </si>
+  <si>
+    <t>40.44坪</t>
+  </si>
+  <si>
+    <t>38.82坪</t>
+  </si>
+  <si>
+    <t>157.79坪</t>
+  </si>
+  <si>
+    <t>121.9坪</t>
+  </si>
+  <si>
+    <t>65.24坪</t>
+  </si>
+  <si>
+    <t>27.7坪</t>
+  </si>
+  <si>
+    <t>39.87坪</t>
+  </si>
+  <si>
+    <t>43.9坪</t>
+  </si>
+  <si>
+    <t>9.11坪</t>
+  </si>
+  <si>
+    <t>53.76坪</t>
+  </si>
+  <si>
+    <t>48.79坪</t>
+  </si>
+  <si>
+    <t>1.6坪</t>
+  </si>
+  <si>
+    <t>54.304坪</t>
+  </si>
+  <si>
+    <t>47.4坪</t>
+  </si>
+  <si>
+    <t>58.36坪</t>
+  </si>
+  <si>
+    <t>230.86坪</t>
+  </si>
+  <si>
+    <t>17.48坪</t>
+  </si>
+  <si>
+    <t>98.5坪</t>
+  </si>
+  <si>
+    <t>53.35坪</t>
+  </si>
+  <si>
+    <t>13.9坪</t>
+  </si>
+  <si>
+    <t>39.08坪</t>
+  </si>
+  <si>
+    <t>36.74坪</t>
+  </si>
+  <si>
+    <t>68.47坪</t>
+  </si>
+  <si>
+    <t>27.27坪</t>
+  </si>
+  <si>
+    <t>18.81坪</t>
+  </si>
+  <si>
+    <t>18.73坪</t>
+  </si>
+  <si>
+    <t>22.1坪</t>
+  </si>
+  <si>
+    <t>238.82坪</t>
+  </si>
+  <si>
+    <t>21.4坪</t>
+  </si>
+  <si>
+    <t>46.8坪</t>
+  </si>
+  <si>
+    <t>39.4坪</t>
+  </si>
+  <si>
+    <t>45.06坪</t>
+  </si>
+  <si>
+    <t>18.3坪</t>
+  </si>
+  <si>
+    <t>46.21坪</t>
+  </si>
+  <si>
+    <t>247.09坪</t>
+  </si>
+  <si>
+    <t>98.37坪</t>
+  </si>
+  <si>
+    <t>12.43坪</t>
+  </si>
+  <si>
+    <t>253.22坪</t>
+  </si>
+  <si>
+    <t>41.38坪</t>
+  </si>
+  <si>
+    <t>18.51坪</t>
+  </si>
+  <si>
+    <t>39.74坪</t>
+  </si>
+  <si>
+    <t>24.1坪</t>
+  </si>
+  <si>
+    <t>686.66坪</t>
+  </si>
+  <si>
+    <t>39.5坪</t>
+  </si>
+  <si>
+    <t>38.75坪</t>
+  </si>
+  <si>
+    <t>42.4坪</t>
+  </si>
+  <si>
+    <t>42.95坪</t>
+  </si>
+  <si>
+    <t>2.36坪</t>
+  </si>
+  <si>
+    <t>15.9坪</t>
+  </si>
+  <si>
+    <t>250坪</t>
+  </si>
+  <si>
     <t>37.3坪</t>
   </si>
   <si>
-    <t>146坪</t>
-  </si>
-  <si>
-    <t>655坪</t>
-  </si>
-  <si>
-    <t>63.89坪</t>
-  </si>
-  <si>
-    <t>231坪</t>
-  </si>
-  <si>
-    <t>80.6坪</t>
-  </si>
-  <si>
-    <t>117.32坪</t>
-  </si>
-  <si>
-    <t>63.92坪</t>
-  </si>
-  <si>
-    <t>96.28坪</t>
-  </si>
-  <si>
-    <t>17.86坪</t>
-  </si>
-  <si>
-    <t>30.18坪</t>
-  </si>
-  <si>
-    <t>198坪</t>
-  </si>
-  <si>
-    <t>28.42坪</t>
-  </si>
-  <si>
-    <t>56.88坪</t>
-  </si>
-  <si>
-    <t>85.27坪</t>
-  </si>
-  <si>
-    <t>67.78坪</t>
-  </si>
-  <si>
-    <t>19.81坪</t>
-  </si>
-  <si>
-    <t>450坪</t>
-  </si>
-  <si>
-    <t>238坪</t>
-  </si>
-  <si>
-    <t>61.59坪</t>
-  </si>
-  <si>
-    <t>26.3坪</t>
-  </si>
-  <si>
-    <t>66.91坪</t>
-  </si>
-  <si>
-    <t>29.5坪</t>
-  </si>
-  <si>
-    <t>1636坪</t>
-  </si>
-  <si>
-    <t>214坪</t>
-  </si>
-  <si>
-    <t>23.65坪</t>
-  </si>
-  <si>
-    <t>88.44坪</t>
-  </si>
-  <si>
-    <t>103坪</t>
-  </si>
-  <si>
-    <t>18.19坪</t>
-  </si>
-  <si>
-    <t>44.93坪</t>
-  </si>
-  <si>
-    <t>47.64坪</t>
-  </si>
-  <si>
-    <t>91.43坪</t>
-  </si>
-  <si>
-    <t>90.59坪</t>
-  </si>
-  <si>
-    <t>34.42坪</t>
-  </si>
-  <si>
-    <t>64.75坪</t>
-  </si>
-  <si>
-    <t>40.4坪</t>
-  </si>
-  <si>
-    <t>12.52坪</t>
-  </si>
-  <si>
-    <t>227坪</t>
-  </si>
-  <si>
-    <t>29.7坪</t>
-  </si>
-  <si>
-    <t>235坪</t>
-  </si>
-  <si>
-    <t>10.25坪</t>
-  </si>
-  <si>
-    <t>50.79坪</t>
-  </si>
-  <si>
-    <t>28.15坪</t>
-  </si>
-  <si>
-    <t>93坪</t>
-  </si>
-  <si>
-    <t>24.52坪</t>
-  </si>
-  <si>
-    <t>16.5坪</t>
-  </si>
-  <si>
-    <t>26.8坪</t>
-  </si>
-  <si>
-    <t>755坪</t>
-  </si>
-  <si>
-    <t>28.13坪</t>
-  </si>
-  <si>
-    <t>29.35坪</t>
-  </si>
-  <si>
-    <t>8.29坪</t>
-  </si>
-  <si>
-    <t>56.39坪</t>
-  </si>
-  <si>
-    <t>44.06坪</t>
-  </si>
-  <si>
-    <t>58.02坪</t>
-  </si>
-  <si>
-    <t>30.42坪</t>
-  </si>
-  <si>
-    <t>43.61坪</t>
-  </si>
-  <si>
-    <t>66.24坪</t>
-  </si>
-  <si>
-    <t>261.4坪</t>
-  </si>
-  <si>
-    <t>29.52坪</t>
-  </si>
-  <si>
-    <t>21.74坪</t>
-  </si>
-  <si>
-    <t>18.97坪</t>
-  </si>
-  <si>
-    <t>27.11坪</t>
-  </si>
-  <si>
-    <t>49.38坪</t>
-  </si>
-  <si>
-    <t>54.64坪</t>
-  </si>
-  <si>
-    <t>114.56坪</t>
-  </si>
-  <si>
-    <t>62.61坪</t>
-  </si>
-  <si>
-    <t>109.65坪</t>
-  </si>
-  <si>
-    <t>26.86坪</t>
-  </si>
-  <si>
-    <t>301.74坪</t>
-  </si>
-  <si>
-    <t>82.82坪</t>
-  </si>
-  <si>
-    <t>24.45坪</t>
-  </si>
-  <si>
-    <t>22.39坪</t>
-  </si>
-  <si>
-    <t>52.44坪</t>
-  </si>
-  <si>
-    <t>33.14坪</t>
-  </si>
-  <si>
-    <t>29.84坪</t>
-  </si>
-  <si>
-    <t>101.44坪</t>
-  </si>
-  <si>
-    <t>34.02坪</t>
-  </si>
-  <si>
-    <t>9.27坪</t>
-  </si>
-  <si>
-    <t>24.61坪</t>
-  </si>
-  <si>
-    <t>19.02坪</t>
-  </si>
-  <si>
-    <t>52.33坪</t>
-  </si>
-  <si>
-    <t>33.23坪</t>
-  </si>
-  <si>
-    <t>28.1坪</t>
-  </si>
-  <si>
-    <t>34.23坪</t>
-  </si>
-  <si>
-    <t>28.73坪</t>
-  </si>
-  <si>
-    <t>24.05坪</t>
-  </si>
-  <si>
-    <t>81.93坪</t>
-  </si>
-  <si>
-    <t>34.39坪</t>
-  </si>
-  <si>
-    <t>31.81坪</t>
-  </si>
-  <si>
-    <t>32.22坪</t>
-  </si>
-  <si>
-    <t>217坪</t>
-  </si>
-  <si>
-    <t>190坪</t>
-  </si>
-  <si>
-    <t>45.6坪</t>
-  </si>
-  <si>
-    <t>1140坪</t>
-  </si>
-  <si>
-    <t>580坪</t>
-  </si>
-  <si>
-    <t>57.03坪</t>
-  </si>
-  <si>
-    <t>21.19坪</t>
-  </si>
-  <si>
-    <t>46.9坪</t>
-  </si>
-  <si>
-    <t>18.62坪</t>
-  </si>
-  <si>
-    <t>36.98坪</t>
-  </si>
-  <si>
-    <t>215坪</t>
-  </si>
-  <si>
-    <t>207坪</t>
-  </si>
-  <si>
-    <t>9.15坪</t>
-  </si>
-  <si>
-    <t>53.94坪</t>
-  </si>
-  <si>
-    <t>27.72坪</t>
-  </si>
-  <si>
-    <t>17.96坪</t>
-  </si>
-  <si>
-    <t>67.22坪</t>
-  </si>
-  <si>
-    <t>13.08坪</t>
-  </si>
-  <si>
-    <t>17.9坪</t>
-  </si>
-  <si>
-    <t>28.26坪</t>
-  </si>
-  <si>
-    <t>43.27坪</t>
-  </si>
-  <si>
-    <t>50.07坪</t>
-  </si>
-  <si>
-    <t>91坪</t>
-  </si>
-  <si>
-    <t>110.63坪</t>
-  </si>
-  <si>
-    <t>8.33坪</t>
-  </si>
-  <si>
-    <t>85.3坪</t>
-  </si>
-  <si>
-    <t>68.16坪</t>
-  </si>
-  <si>
-    <t>156坪</t>
-  </si>
-  <si>
-    <t>122坪</t>
-  </si>
-  <si>
-    <t>122.04坪</t>
-  </si>
-  <si>
-    <t>70.67坪</t>
-  </si>
-  <si>
-    <t>30.49坪</t>
-  </si>
-  <si>
-    <t>31.06坪</t>
-  </si>
-  <si>
-    <t>37.29坪</t>
-  </si>
-  <si>
-    <t>82.3坪</t>
-  </si>
-  <si>
-    <t>25.37坪</t>
-  </si>
-  <si>
-    <t>259.59坪</t>
-  </si>
-  <si>
-    <t>152.99坪</t>
-  </si>
-  <si>
-    <t>307坪</t>
-  </si>
-  <si>
-    <t>45.42坪</t>
-  </si>
-  <si>
-    <t>25.09坪</t>
-  </si>
-  <si>
-    <t>51.2坪</t>
-  </si>
-  <si>
-    <t>73.01坪</t>
-  </si>
-  <si>
-    <t>49.47坪</t>
-  </si>
-  <si>
-    <t>22.91坪</t>
-  </si>
-  <si>
-    <t>370坪</t>
-  </si>
-  <si>
-    <t>94.39坪</t>
-  </si>
-  <si>
-    <t>23.41坪</t>
-  </si>
-  <si>
-    <t>41.18坪</t>
-  </si>
-  <si>
-    <t>363坪</t>
-  </si>
-  <si>
-    <t>28.87坪</t>
-  </si>
-  <si>
-    <t>19.6坪</t>
-  </si>
-  <si>
-    <t>218.6坪</t>
-  </si>
-  <si>
-    <t>95.94坪</t>
-  </si>
-  <si>
-    <t>38.37坪</t>
-  </si>
-  <si>
-    <t>29.57坪</t>
-  </si>
-  <si>
-    <t>142.96坪</t>
-  </si>
-  <si>
-    <t>51.06坪</t>
-  </si>
-  <si>
-    <t>246.86坪</t>
-  </si>
-  <si>
-    <t>31.31坪</t>
-  </si>
-  <si>
-    <t>79.29坪</t>
-  </si>
-  <si>
-    <t>107.19坪</t>
-  </si>
-  <si>
-    <t>122.32坪</t>
-  </si>
-  <si>
-    <t>771.03坪</t>
-  </si>
-  <si>
-    <t>34.6坪</t>
-  </si>
-  <si>
-    <t>54.79坪</t>
-  </si>
-  <si>
-    <t>30.987坪</t>
-  </si>
-  <si>
-    <t>47.45坪</t>
-  </si>
-  <si>
-    <t>223坪</t>
-  </si>
-  <si>
-    <t>18.7坪</t>
-  </si>
-  <si>
-    <t>212.14坪</t>
-  </si>
-  <si>
-    <t>95.13坪</t>
-  </si>
-  <si>
-    <t>259坪</t>
-  </si>
-  <si>
-    <t>178坪</t>
-  </si>
-  <si>
-    <t>40.9坪</t>
-  </si>
-  <si>
-    <t>36.58坪</t>
-  </si>
-  <si>
-    <t>25.685坪</t>
-  </si>
-  <si>
-    <t>3.72坪</t>
-  </si>
-  <si>
-    <t>39.23坪</t>
-  </si>
-  <si>
-    <t>20.69坪</t>
-  </si>
-  <si>
-    <t>21.1坪</t>
-  </si>
-  <si>
-    <t>115.66坪</t>
-  </si>
-  <si>
-    <t>36.92坪</t>
-  </si>
-  <si>
-    <t>32.39坪</t>
-  </si>
-  <si>
-    <t>85.225坪</t>
-  </si>
-  <si>
-    <t>66.23坪</t>
-  </si>
-  <si>
-    <t>47.28坪</t>
-  </si>
-  <si>
-    <t>15.5坪</t>
-  </si>
-  <si>
-    <t>25.8坪</t>
-  </si>
-  <si>
-    <t>22.78坪</t>
-  </si>
-  <si>
-    <t>106.56坪</t>
-  </si>
-  <si>
-    <t>35.35坪</t>
-  </si>
-  <si>
-    <t>40.44坪</t>
-  </si>
-  <si>
-    <t>38.82坪</t>
-  </si>
-  <si>
-    <t>157.79坪</t>
-  </si>
-  <si>
-    <t>121.9坪</t>
-  </si>
-  <si>
-    <t>65.24坪</t>
-  </si>
-  <si>
-    <t>27.7坪</t>
-  </si>
-  <si>
-    <t>39.87坪</t>
-  </si>
-  <si>
-    <t>43.9坪</t>
-  </si>
-  <si>
-    <t>9.11坪</t>
-  </si>
-  <si>
-    <t>53.76坪</t>
-  </si>
-  <si>
-    <t>48.79坪</t>
-  </si>
-  <si>
-    <t>1.6坪</t>
-  </si>
-  <si>
-    <t>54.304坪</t>
-  </si>
-  <si>
-    <t>47.4坪</t>
-  </si>
-  <si>
-    <t>58.36坪</t>
-  </si>
-  <si>
-    <t>230.86坪</t>
-  </si>
-  <si>
-    <t>17.48坪</t>
-  </si>
-  <si>
-    <t>98.5坪</t>
-  </si>
-  <si>
-    <t>53.35坪</t>
-  </si>
-  <si>
-    <t>13.9坪</t>
-  </si>
-  <si>
-    <t>39.08坪</t>
-  </si>
-  <si>
-    <t>36.74坪</t>
-  </si>
-  <si>
-    <t>68.47坪</t>
-  </si>
-  <si>
-    <t>27.27坪</t>
-  </si>
-  <si>
-    <t>18.81坪</t>
-  </si>
-  <si>
-    <t>18.73坪</t>
-  </si>
-  <si>
-    <t>22.1坪</t>
-  </si>
-  <si>
-    <t>238.82坪</t>
-  </si>
-  <si>
-    <t>21.4坪</t>
-  </si>
-  <si>
-    <t>46.8坪</t>
-  </si>
-  <si>
-    <t>39.4坪</t>
-  </si>
-  <si>
-    <t>45.06坪</t>
-  </si>
-  <si>
-    <t>18.3坪</t>
-  </si>
-  <si>
-    <t>46.21坪</t>
-  </si>
-  <si>
-    <t>247.09坪</t>
-  </si>
-  <si>
-    <t>98.37坪</t>
-  </si>
-  <si>
-    <t>12.43坪</t>
-  </si>
-  <si>
-    <t>253.22坪</t>
-  </si>
-  <si>
-    <t>41.38坪</t>
-  </si>
-  <si>
-    <t>18.51坪</t>
-  </si>
-  <si>
-    <t>39.74坪</t>
-  </si>
-  <si>
-    <t>24.1坪</t>
-  </si>
-  <si>
-    <t>686.66坪</t>
-  </si>
-  <si>
-    <t>39.5坪</t>
-  </si>
-  <si>
-    <t>38.75坪</t>
-  </si>
-  <si>
-    <t>42.4坪</t>
-  </si>
-  <si>
-    <t>42.95坪</t>
-  </si>
-  <si>
-    <t>2.36坪</t>
-  </si>
-  <si>
-    <t>15.9坪</t>
-  </si>
-  <si>
-    <t>250坪</t>
-  </si>
-  <si>
     <t>43.37坪</t>
   </si>
   <si>
@@ -2995,18 +2995,18 @@
     <t>1F/15F</t>
   </si>
   <si>
+    <t>1F/5F</t>
+  </si>
+  <si>
+    <t>B1/16F</t>
+  </si>
+  <si>
+    <t>頂樓加蓋/12F</t>
+  </si>
+  <si>
     <t>整棟/3F</t>
   </si>
   <si>
-    <t>1F/5F</t>
-  </si>
-  <si>
-    <t>B1/16F</t>
-  </si>
-  <si>
-    <t>頂樓加蓋/12F</t>
-  </si>
-  <si>
     <t>整棟/5F</t>
   </si>
   <si>
@@ -5705,9 +5705,6 @@
   </si>
   <si>
     <t>中鼎大樓</t>
-  </si>
-  <si>
-    <t>龍山寺</t>
   </si>
   <si>
     <t>華美大廈</t>
@@ -7570,18 +7567,6 @@
       <c r="B75">
         <v>6739724</v>
       </c>
-      <c r="C75" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" t="s">
-        <v>961</v>
-      </c>
-      <c r="E75" t="s">
-        <v>993</v>
-      </c>
-      <c r="G75" t="s">
-        <v>1326</v>
-      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
@@ -7599,7 +7584,7 @@
         <v>6744326</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
         <v>959</v>
@@ -7619,13 +7604,13 @@
         <v>6747723</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
         <v>961</v>
       </c>
       <c r="E78" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G78" t="s">
         <v>1326</v>
@@ -7639,7 +7624,7 @@
         <v>6761705</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
         <v>962</v>
@@ -7659,7 +7644,7 @@
         <v>6763663</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
         <v>962</v>
@@ -7699,7 +7684,7 @@
         <v>6767959</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
         <v>962</v>
@@ -7770,13 +7755,13 @@
         <v>6786493</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
         <v>962</v>
       </c>
       <c r="E86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G86" t="s">
         <v>1326</v>
@@ -7818,13 +7803,13 @@
         <v>6791536</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
         <v>962</v>
       </c>
       <c r="E89" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G89" t="s">
         <v>1326</v>
@@ -7838,13 +7823,13 @@
         <v>6792428</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
         <v>962</v>
       </c>
       <c r="E90" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G90" t="s">
         <v>1326</v>
@@ -7904,7 +7889,7 @@
         <v>959</v>
       </c>
       <c r="E93" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G93" t="s">
         <v>1326</v>
@@ -7947,7 +7932,7 @@
         <v>960</v>
       </c>
       <c r="E95" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G95" t="s">
         <v>1326</v>
@@ -8027,7 +8012,7 @@
         <v>962</v>
       </c>
       <c r="E99" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G99" t="s">
         <v>1326</v>
@@ -8047,7 +8032,7 @@
         <v>961</v>
       </c>
       <c r="E100" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G100" t="s">
         <v>1326</v>
@@ -8067,7 +8052,7 @@
         <v>962</v>
       </c>
       <c r="E101" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G101" t="s">
         <v>1326</v>
@@ -8170,7 +8155,7 @@
         <v>6829746</v>
       </c>
       <c r="C106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D106" t="s">
         <v>962</v>
@@ -8419,7 +8404,7 @@
         <v>6857333</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s">
         <v>962</v>
@@ -8490,7 +8475,7 @@
         <v>6865054</v>
       </c>
       <c r="C122" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D122" t="s">
         <v>962</v>
@@ -8533,7 +8518,7 @@
         <v>6871289</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D124" t="s">
         <v>962</v>
@@ -8582,7 +8567,7 @@
         <v>960</v>
       </c>
       <c r="E126" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G126" t="s">
         <v>1326</v>
@@ -8771,7 +8756,7 @@
         <v>960</v>
       </c>
       <c r="E135" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G135" t="s">
         <v>1326</v>
@@ -8897,7 +8882,7 @@
         <v>962</v>
       </c>
       <c r="E141" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G141" t="s">
         <v>1326</v>
@@ -9017,7 +9002,7 @@
         <v>6912893</v>
       </c>
       <c r="C147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D147" t="s">
         <v>962</v>
@@ -9037,7 +9022,7 @@
         <v>6913253</v>
       </c>
       <c r="C148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D148" t="s">
         <v>962</v>
@@ -9106,7 +9091,7 @@
         <v>6916582</v>
       </c>
       <c r="C151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D151" t="s">
         <v>959</v>
@@ -9126,7 +9111,7 @@
         <v>6917776</v>
       </c>
       <c r="C152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D152" t="s">
         <v>961</v>
@@ -9192,7 +9177,7 @@
         <v>962</v>
       </c>
       <c r="E155" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G155" t="s">
         <v>1326</v>
@@ -9352,7 +9337,7 @@
         <v>6931012</v>
       </c>
       <c r="C163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D163" t="s">
         <v>962</v>
@@ -9455,13 +9440,13 @@
         <v>6938534</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D168" t="s">
         <v>961</v>
       </c>
       <c r="E168" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G168" t="s">
         <v>1326</v>
@@ -9627,7 +9612,7 @@
         <v>962</v>
       </c>
       <c r="E176" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G176" t="s">
         <v>1326</v>
@@ -9846,7 +9831,7 @@
         <v>961</v>
       </c>
       <c r="E188" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G188" t="s">
         <v>1326</v>
@@ -9917,7 +9902,7 @@
         <v>962</v>
       </c>
       <c r="E192" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G192" t="s">
         <v>1326</v>
@@ -9937,7 +9922,7 @@
         <v>962</v>
       </c>
       <c r="E193" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G193" t="s">
         <v>1326</v>
@@ -9965,7 +9950,7 @@
         <v>962</v>
       </c>
       <c r="E195" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G195" t="s">
         <v>1326</v>
@@ -10145,7 +10130,7 @@
         <v>962</v>
       </c>
       <c r="E204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G204" t="s">
         <v>1326</v>
@@ -10222,7 +10207,7 @@
         <v>7009588</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D208" t="s">
         <v>962</v>
@@ -10268,7 +10253,7 @@
         <v>7012643</v>
       </c>
       <c r="C210" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D210" t="s">
         <v>962</v>
@@ -10354,13 +10339,13 @@
         <v>7023283</v>
       </c>
       <c r="C214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D214" t="s">
         <v>962</v>
       </c>
       <c r="E214" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G214" t="s">
         <v>1326</v>
@@ -10420,7 +10405,7 @@
         <v>6762815</v>
       </c>
       <c r="C217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D217" t="s">
         <v>962</v>
@@ -10715,7 +10700,7 @@
         <v>6763585</v>
       </c>
       <c r="C231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D231" t="s">
         <v>961</v>
@@ -10741,7 +10726,7 @@
         <v>961</v>
       </c>
       <c r="E232" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F232" t="s">
         <v>49</v>
@@ -10859,7 +10844,7 @@
         <v>960</v>
       </c>
       <c r="E237" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G237" t="s">
         <v>1326</v>
@@ -10876,13 +10861,13 @@
         <v>6969106</v>
       </c>
       <c r="C238" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D238" t="s">
         <v>962</v>
       </c>
       <c r="E238" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F238" t="s">
         <v>1087</v>
@@ -11076,7 +11061,7 @@
         <v>6853893</v>
       </c>
       <c r="C248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D248" t="s">
         <v>959</v>
@@ -11148,7 +11133,7 @@
         <v>7021638</v>
       </c>
       <c r="C251" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D251" t="s">
         <v>961</v>
@@ -11197,7 +11182,7 @@
         <v>961</v>
       </c>
       <c r="E253" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G253" t="s">
         <v>1326</v>
@@ -11217,7 +11202,7 @@
         <v>961</v>
       </c>
       <c r="E254" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G254" t="s">
         <v>1326</v>
@@ -11343,7 +11328,7 @@
         <v>960</v>
       </c>
       <c r="E260" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G260" t="s">
         <v>1326</v>
@@ -11363,7 +11348,7 @@
         <v>961</v>
       </c>
       <c r="E261" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F261" t="s">
         <v>1090</v>
@@ -11386,7 +11371,7 @@
         <v>962</v>
       </c>
       <c r="E262" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G262" t="s">
         <v>1326</v>
@@ -11484,7 +11469,7 @@
         <v>962</v>
       </c>
       <c r="E269" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F269" t="s">
         <v>1091</v>
@@ -11530,7 +11515,7 @@
         <v>961</v>
       </c>
       <c r="E271" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G271" t="s">
         <v>1326</v>
@@ -11544,7 +11529,7 @@
         <v>6002541</v>
       </c>
       <c r="C272" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D272" t="s">
         <v>959</v>
@@ -11616,7 +11601,7 @@
         <v>961</v>
       </c>
       <c r="E275" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G275" t="s">
         <v>1326</v>
@@ -11798,7 +11783,7 @@
         <v>962</v>
       </c>
       <c r="E288" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F288" t="s">
         <v>130</v>
@@ -12121,13 +12106,13 @@
         <v>6773539</v>
       </c>
       <c r="C304" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D304" t="s">
         <v>961</v>
       </c>
       <c r="E304" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G304" t="s">
         <v>1326</v>
@@ -12227,7 +12212,7 @@
         <v>961</v>
       </c>
       <c r="E309" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G309" t="s">
         <v>1326</v>
@@ -12356,7 +12341,7 @@
         <v>961</v>
       </c>
       <c r="E315" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G315" t="s">
         <v>1326</v>
@@ -12586,7 +12571,7 @@
         <v>961</v>
       </c>
       <c r="E325" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G325" t="s">
         <v>1326</v>
@@ -12737,7 +12722,7 @@
         <v>6825304</v>
       </c>
       <c r="C333" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D333" t="s">
         <v>959</v>
@@ -12880,7 +12865,7 @@
         <v>962</v>
       </c>
       <c r="E340" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F340" t="s">
         <v>1097</v>
@@ -12923,7 +12908,7 @@
         <v>961</v>
       </c>
       <c r="E342" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G342" t="s">
         <v>1326</v>
@@ -12960,7 +12945,7 @@
         <v>6845019</v>
       </c>
       <c r="C344" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D344" t="s">
         <v>962</v>
@@ -13092,7 +13077,7 @@
         <v>961</v>
       </c>
       <c r="E350" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G350" t="s">
         <v>1326</v>
@@ -13112,7 +13097,7 @@
         <v>962</v>
       </c>
       <c r="E351" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G351" t="s">
         <v>1326</v>
@@ -13241,7 +13226,7 @@
         <v>961</v>
       </c>
       <c r="E357" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G357" t="s">
         <v>1326</v>
@@ -13472,7 +13457,7 @@
         <v>6870124</v>
       </c>
       <c r="C369" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D369" t="s">
         <v>962</v>
@@ -13567,7 +13552,7 @@
         <v>961</v>
       </c>
       <c r="E373" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G373" t="s">
         <v>1326</v>
@@ -13779,7 +13764,7 @@
         <v>6892596</v>
       </c>
       <c r="C383" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D383" t="s">
         <v>962</v>
@@ -13908,7 +13893,7 @@
         <v>960</v>
       </c>
       <c r="E389" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F389" t="s">
         <v>43</v>
@@ -13931,7 +13916,7 @@
         <v>962</v>
       </c>
       <c r="E390" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G390" t="s">
         <v>1326</v>
@@ -14363,7 +14348,7 @@
         <v>961</v>
       </c>
       <c r="E411" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G411" t="s">
         <v>1326</v>
@@ -14377,7 +14362,7 @@
         <v>6925634</v>
       </c>
       <c r="C412" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D412" t="s">
         <v>962</v>
@@ -14423,7 +14408,7 @@
         <v>962</v>
       </c>
       <c r="E414" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G414" t="s">
         <v>1326</v>
@@ -14678,7 +14663,7 @@
         <v>962</v>
       </c>
       <c r="E426" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G426" t="s">
         <v>1326</v>
@@ -14747,7 +14732,7 @@
         <v>961</v>
       </c>
       <c r="E429" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F429" t="s">
         <v>45</v>
@@ -14807,7 +14792,7 @@
         <v>6946057</v>
       </c>
       <c r="C432" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D432" t="s">
         <v>962</v>
@@ -14850,13 +14835,13 @@
         <v>6951042</v>
       </c>
       <c r="C434" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D434" t="s">
         <v>962</v>
       </c>
       <c r="E434" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G434" t="s">
         <v>1326</v>
@@ -14939,7 +14924,7 @@
         <v>6960692</v>
       </c>
       <c r="C438" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D438" t="s">
         <v>961</v>
@@ -15143,7 +15128,7 @@
         <v>960</v>
       </c>
       <c r="E447" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F447" t="s">
         <v>188</v>
@@ -15366,7 +15351,7 @@
         <v>961</v>
       </c>
       <c r="E458" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G458" t="s">
         <v>1326</v>
@@ -15472,7 +15457,7 @@
         <v>962</v>
       </c>
       <c r="E463" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F463" t="s">
         <v>193</v>
@@ -15495,7 +15480,7 @@
         <v>961</v>
       </c>
       <c r="E464" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F464" t="s">
         <v>1101</v>
@@ -15561,7 +15546,7 @@
         <v>962</v>
       </c>
       <c r="E467" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F467" t="s">
         <v>1101</v>
@@ -15753,7 +15738,7 @@
         <v>6994324</v>
       </c>
       <c r="C476" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D476" t="s">
         <v>962</v>
@@ -15872,7 +15857,7 @@
         <v>6997683</v>
       </c>
       <c r="C483" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D483" t="s">
         <v>960</v>
@@ -15961,7 +15946,7 @@
         <v>6998479</v>
       </c>
       <c r="C487" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D487" t="s">
         <v>962</v>
@@ -16088,7 +16073,7 @@
         <v>976</v>
       </c>
       <c r="F492" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G492" t="s">
         <v>1326</v>
@@ -16162,7 +16147,7 @@
         <v>961</v>
       </c>
       <c r="E496" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G496" t="s">
         <v>1326</v>
@@ -16548,7 +16533,7 @@
         <v>961</v>
       </c>
       <c r="E515" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G515" t="s">
         <v>1326</v>
@@ -17036,7 +17021,7 @@
         <v>961</v>
       </c>
       <c r="E540" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G540" t="s">
         <v>1326</v>
@@ -17050,13 +17035,13 @@
         <v>6926663</v>
       </c>
       <c r="C541" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D541" t="s">
         <v>962</v>
       </c>
       <c r="E541" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F541" t="s">
         <v>1107</v>
@@ -17234,7 +17219,7 @@
         <v>961</v>
       </c>
       <c r="E549" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G549" t="s">
         <v>1326</v>
@@ -17322,7 +17307,7 @@
         <v>6807692</v>
       </c>
       <c r="C554" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D554" t="s">
         <v>962</v>
@@ -17353,7 +17338,7 @@
         <v>6991850</v>
       </c>
       <c r="C556" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D556" t="s">
         <v>962</v>
@@ -17407,7 +17392,7 @@
         <v>962</v>
       </c>
       <c r="E559" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G559" t="s">
         <v>1326</v>
@@ -17658,7 +17643,7 @@
         <v>962</v>
       </c>
       <c r="E572" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F572" t="s">
         <v>396</v>
@@ -17724,7 +17709,7 @@
         <v>960</v>
       </c>
       <c r="E575" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F575" t="s">
         <v>240</v>
@@ -18148,10 +18133,10 @@
         <v>960</v>
       </c>
       <c r="E595" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F595" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G595" t="s">
         <v>1326</v>
@@ -18171,7 +18156,7 @@
         <v>961</v>
       </c>
       <c r="E596" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G596" t="s">
         <v>1326</v>
@@ -18251,7 +18236,7 @@
         <v>961</v>
       </c>
       <c r="E600" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G600" t="s">
         <v>1326</v>
@@ -18327,7 +18312,7 @@
         <v>7020827</v>
       </c>
       <c r="C605" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D605" t="s">
         <v>960</v>
@@ -18410,7 +18395,7 @@
         <v>6954863</v>
       </c>
       <c r="C609" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D609" t="s">
         <v>961</v>
@@ -18496,7 +18481,7 @@
         <v>6929136</v>
       </c>
       <c r="C616" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D616" t="s">
         <v>959</v>
@@ -18562,7 +18547,7 @@
         <v>6998224</v>
       </c>
       <c r="C619" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D619" t="s">
         <v>959</v>
@@ -18588,13 +18573,13 @@
         <v>7010782</v>
       </c>
       <c r="C620" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D620" t="s">
         <v>962</v>
       </c>
       <c r="E620" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F620" t="s">
         <v>1112</v>
@@ -18792,7 +18777,7 @@
         <v>6787878</v>
       </c>
       <c r="C632" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D632" t="s">
         <v>962</v>
@@ -18801,7 +18786,7 @@
         <v>967</v>
       </c>
       <c r="F632" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G632" t="s">
         <v>1326</v>
@@ -18887,7 +18872,7 @@
         <v>962</v>
       </c>
       <c r="E636" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G636" t="s">
         <v>1326</v>
@@ -18921,13 +18906,13 @@
         <v>7009900</v>
       </c>
       <c r="C638" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D638" t="s">
         <v>962</v>
       </c>
       <c r="E638" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G638" t="s">
         <v>1326</v>
@@ -18955,7 +18940,7 @@
         <v>961</v>
       </c>
       <c r="E640" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G640" t="s">
         <v>1326</v>
@@ -19064,7 +19049,7 @@
         <v>6787868</v>
       </c>
       <c r="C645" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D645" t="s">
         <v>962</v>
@@ -19073,7 +19058,7 @@
         <v>967</v>
       </c>
       <c r="F645" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G645" t="s">
         <v>1326</v>
@@ -19116,7 +19101,7 @@
         <v>960</v>
       </c>
       <c r="E647" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G647" t="s">
         <v>1326</v>
@@ -19368,7 +19353,7 @@
         <v>982</v>
       </c>
       <c r="F659" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G659" t="s">
         <v>1326</v>
@@ -19551,7 +19536,7 @@
         <v>979</v>
       </c>
       <c r="F668" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G668" t="s">
         <v>1326</v>
@@ -19647,13 +19632,13 @@
         <v>6756303</v>
       </c>
       <c r="C674" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D674" t="s">
         <v>962</v>
       </c>
       <c r="E674" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G674" t="s">
         <v>1326</v>
@@ -19864,7 +19849,7 @@
         <v>6969132</v>
       </c>
       <c r="C685" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D685" t="s">
         <v>962</v>
@@ -19893,7 +19878,7 @@
         <v>981</v>
       </c>
       <c r="F686" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G686" t="s">
         <v>1326</v>
@@ -19913,7 +19898,7 @@
         <v>961</v>
       </c>
       <c r="E687" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F687" t="s">
         <v>276</v>
@@ -19969,13 +19954,13 @@
         <v>7010959</v>
       </c>
       <c r="C691" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D691" t="s">
         <v>961</v>
       </c>
       <c r="E691" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G691" t="s">
         <v>1326</v>
@@ -20388,7 +20373,7 @@
         <v>6839396</v>
       </c>
       <c r="C710" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D710" t="s">
         <v>961</v>
@@ -20471,7 +20456,7 @@
         <v>6886374</v>
       </c>
       <c r="C714" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D714" t="s">
         <v>961</v>
@@ -20491,7 +20476,7 @@
         <v>6886397</v>
       </c>
       <c r="C715" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D715" t="s">
         <v>961</v>
@@ -20517,7 +20502,7 @@
         <v>961</v>
       </c>
       <c r="E716" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G716" t="s">
         <v>1326</v>
@@ -20655,7 +20640,7 @@
         <v>962</v>
       </c>
       <c r="E722" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G722" t="s">
         <v>1326</v>
@@ -20718,7 +20703,7 @@
         <v>962</v>
       </c>
       <c r="E725" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G725" t="s">
         <v>1326</v>
@@ -20761,7 +20746,7 @@
         <v>962</v>
       </c>
       <c r="E727" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G727" t="s">
         <v>1326</v>
@@ -21002,7 +20987,7 @@
         <v>959</v>
       </c>
       <c r="E738" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G738" t="s">
         <v>1326</v>
@@ -21368,7 +21353,7 @@
         <v>7023348</v>
       </c>
       <c r="C762" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D762" t="s">
         <v>962</v>
@@ -21634,18 +21619,6 @@
       <c r="B777">
         <v>6928339</v>
       </c>
-      <c r="C777" t="s">
-        <v>105</v>
-      </c>
-      <c r="D777" t="s">
-        <v>962</v>
-      </c>
-      <c r="E777" t="s">
-        <v>979</v>
-      </c>
-      <c r="G777" t="s">
-        <v>1326</v>
-      </c>
     </row>
     <row r="778" spans="1:8">
       <c r="A778" s="1">
@@ -21724,7 +21697,7 @@
         <v>961</v>
       </c>
       <c r="E781" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G781" t="s">
         <v>1326</v>
@@ -21744,7 +21717,7 @@
         <v>962</v>
       </c>
       <c r="E782" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G782" t="s">
         <v>1326</v>
@@ -21758,7 +21731,7 @@
         <v>7017644</v>
       </c>
       <c r="C783" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D783" t="s">
         <v>962</v>
@@ -21787,7 +21760,7 @@
         <v>961</v>
       </c>
       <c r="E784" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G784" t="s">
         <v>1326</v>
@@ -22172,13 +22145,13 @@
         <v>6890825</v>
       </c>
       <c r="C801" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D801" t="s">
         <v>961</v>
       </c>
       <c r="E801" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G801" t="s">
         <v>1326</v>
@@ -22298,7 +22271,7 @@
         <v>960</v>
       </c>
       <c r="E807" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F807" t="s">
         <v>310</v>
@@ -22574,7 +22547,7 @@
         <v>961</v>
       </c>
       <c r="E819" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G819" t="s">
         <v>1326</v>
@@ -22640,7 +22613,7 @@
         <v>960</v>
       </c>
       <c r="E822" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F822" t="s">
         <v>36</v>
@@ -22765,7 +22738,7 @@
         <v>6811558</v>
       </c>
       <c r="C829" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D829" t="s">
         <v>962</v>
@@ -22794,7 +22767,7 @@
         <v>962</v>
       </c>
       <c r="E830" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G830" t="s">
         <v>1326</v>
@@ -22874,7 +22847,7 @@
         <v>962</v>
       </c>
       <c r="E834" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G834" t="s">
         <v>1326</v>
@@ -22894,7 +22867,7 @@
         <v>961</v>
       </c>
       <c r="E835" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G835" t="s">
         <v>1326</v>
@@ -23082,7 +23055,7 @@
         <v>961</v>
       </c>
       <c r="E845" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G845" t="s">
         <v>1326</v>
@@ -23102,7 +23075,7 @@
         <v>961</v>
       </c>
       <c r="E846" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F846" t="s">
         <v>430</v>
@@ -23119,7 +23092,7 @@
         <v>6756765</v>
       </c>
       <c r="C847" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D847" t="s">
         <v>962</v>
@@ -23128,7 +23101,7 @@
         <v>967</v>
       </c>
       <c r="F847" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G847" t="s">
         <v>1326</v>
@@ -23300,7 +23273,7 @@
         <v>962</v>
       </c>
       <c r="E855" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F855" t="s">
         <v>465</v>
@@ -23343,10 +23316,10 @@
         <v>959</v>
       </c>
       <c r="E857" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F857" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G857" t="s">
         <v>1326</v>
@@ -23412,7 +23385,7 @@
         <v>961</v>
       </c>
       <c r="E860" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G860" t="s">
         <v>1326</v>
@@ -23435,7 +23408,7 @@
         <v>962</v>
       </c>
       <c r="E861" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F861" t="s">
         <v>1130</v>
@@ -23538,7 +23511,7 @@
         <v>6994387</v>
       </c>
       <c r="C866" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D866" t="s">
         <v>962</v>
@@ -23590,7 +23563,7 @@
         <v>962</v>
       </c>
       <c r="E868" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G868" t="s">
         <v>1326</v>
@@ -23987,13 +23960,13 @@
         <v>6835792</v>
       </c>
       <c r="C888" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D888" t="s">
         <v>961</v>
       </c>
       <c r="E888" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G888" t="s">
         <v>1326</v>
@@ -24067,7 +24040,7 @@
         <v>962</v>
       </c>
       <c r="E892" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G892" t="s">
         <v>1326</v>
@@ -24330,7 +24303,7 @@
         <v>961</v>
       </c>
       <c r="E905" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G905" t="s">
         <v>1326</v>
@@ -24548,7 +24521,7 @@
         <v>961</v>
       </c>
       <c r="E915" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G915" t="s">
         <v>1326</v>
@@ -24788,7 +24761,7 @@
         <v>7026324</v>
       </c>
       <c r="C930" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D930" t="s">
         <v>962</v>
@@ -24822,7 +24795,7 @@
         <v>960</v>
       </c>
       <c r="E932" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F932" t="s">
         <v>188</v>
@@ -24908,7 +24881,7 @@
         <v>962</v>
       </c>
       <c r="E936" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G936" t="s">
         <v>1326</v>
@@ -24928,7 +24901,7 @@
         <v>962</v>
       </c>
       <c r="E937" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F937" t="s">
         <v>17</v>
@@ -24965,7 +24938,7 @@
         <v>6889789</v>
       </c>
       <c r="C939" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D939" t="s">
         <v>962</v>
@@ -25013,7 +24986,7 @@
         <v>6834176</v>
       </c>
       <c r="C942" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D942" t="s">
         <v>959</v>
@@ -25093,7 +25066,7 @@
         <v>962</v>
       </c>
       <c r="E946" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G946" t="s">
         <v>1326</v>
@@ -25181,7 +25154,7 @@
         <v>6968550</v>
       </c>
       <c r="C951" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D951" t="s">
         <v>960</v>
@@ -25247,7 +25220,7 @@
         <v>961</v>
       </c>
       <c r="E954" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F954" t="s">
         <v>277</v>
@@ -25293,7 +25266,7 @@
         <v>961</v>
       </c>
       <c r="E956" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G956" t="s">
         <v>1326</v>
@@ -25359,7 +25332,7 @@
         <v>962</v>
       </c>
       <c r="E959" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G959" t="s">
         <v>1326</v>
@@ -25520,7 +25493,7 @@
         <v>961</v>
       </c>
       <c r="E966" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G966" t="s">
         <v>1326</v>
@@ -25560,7 +25533,7 @@
         <v>961</v>
       </c>
       <c r="E968" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G968" t="s">
         <v>1326</v>
@@ -25643,7 +25616,7 @@
         <v>962</v>
       </c>
       <c r="E972" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F972" t="s">
         <v>101</v>
@@ -25723,7 +25696,7 @@
         <v>976</v>
       </c>
       <c r="F976" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G976" t="s">
         <v>1326</v>
@@ -25851,7 +25824,7 @@
         <v>967</v>
       </c>
       <c r="F983" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G983" t="s">
         <v>1326</v>
@@ -26017,7 +25990,7 @@
         <v>960</v>
       </c>
       <c r="E991" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G991" t="s">
         <v>1326</v>
@@ -26063,7 +26036,7 @@
         <v>962</v>
       </c>
       <c r="E993" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G993" t="s">
         <v>1326</v>
@@ -26151,7 +26124,7 @@
         <v>6914221</v>
       </c>
       <c r="C998" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D998" t="s">
         <v>959</v>
@@ -26640,7 +26613,7 @@
         <v>959</v>
       </c>
       <c r="E1022" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1022" t="s">
         <v>1326</v>
@@ -26663,7 +26636,7 @@
         <v>959</v>
       </c>
       <c r="E1023" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1023" t="s">
         <v>1326</v>
@@ -27220,7 +27193,7 @@
         <v>961</v>
       </c>
       <c r="E1048" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1048" t="s">
         <v>1146</v>
@@ -27315,7 +27288,7 @@
         <v>961</v>
       </c>
       <c r="E1052" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1052" t="s">
         <v>1326</v>
@@ -27358,7 +27331,7 @@
         <v>962</v>
       </c>
       <c r="E1054" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1054" t="s">
         <v>47</v>
@@ -28074,7 +28047,7 @@
         <v>961</v>
       </c>
       <c r="E1088" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1088" t="s">
         <v>416</v>
@@ -28226,7 +28199,7 @@
         <v>961</v>
       </c>
       <c r="E1095" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1095" t="s">
         <v>1326</v>
@@ -28297,7 +28270,7 @@
         <v>962</v>
       </c>
       <c r="E1099" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1099" t="s">
         <v>1326</v>
@@ -28689,7 +28662,7 @@
         <v>962</v>
       </c>
       <c r="E1118" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1118" t="s">
         <v>1326</v>
@@ -28999,7 +28972,7 @@
         <v>961</v>
       </c>
       <c r="E1135" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1135" t="s">
         <v>1152</v>
@@ -29116,7 +29089,7 @@
         <v>961</v>
       </c>
       <c r="E1141" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1141" t="s">
         <v>1326</v>
@@ -29216,7 +29189,7 @@
         <v>961</v>
       </c>
       <c r="E1146" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1146" t="s">
         <v>1326</v>
@@ -29259,7 +29232,7 @@
         <v>983</v>
       </c>
       <c r="F1148" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G1148" t="s">
         <v>1326</v>
@@ -29371,7 +29344,7 @@
         <v>962</v>
       </c>
       <c r="E1153" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1153" t="s">
         <v>21</v>
@@ -29773,7 +29746,7 @@
         <v>6985997</v>
       </c>
       <c r="C1174" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1174" t="s">
         <v>960</v>
@@ -29955,7 +29928,7 @@
         <v>959</v>
       </c>
       <c r="E1184" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G1184" t="s">
         <v>1326</v>
@@ -30359,13 +30332,13 @@
         <v>6825827</v>
       </c>
       <c r="C1206" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1206" t="s">
         <v>962</v>
       </c>
       <c r="E1206" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1206" t="s">
         <v>1326</v>
@@ -30756,7 +30729,7 @@
         <v>962</v>
       </c>
       <c r="E1226" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1226" t="s">
         <v>1326</v>
@@ -30776,7 +30749,7 @@
         <v>962</v>
       </c>
       <c r="E1227" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1227" t="s">
         <v>1326</v>
@@ -31077,7 +31050,7 @@
         <v>962</v>
       </c>
       <c r="E1241" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1241" t="s">
         <v>1326</v>
@@ -31446,7 +31419,7 @@
         <v>961</v>
       </c>
       <c r="E1259" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1259" t="s">
         <v>1326</v>
@@ -31514,7 +31487,7 @@
         <v>6960491</v>
       </c>
       <c r="C1263" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1263" t="s">
         <v>959</v>
@@ -31646,13 +31619,13 @@
         <v>6982293</v>
       </c>
       <c r="C1269" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1269" t="s">
         <v>961</v>
       </c>
       <c r="E1269" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1269" t="s">
         <v>1326</v>
@@ -31867,7 +31840,7 @@
         <v>961</v>
       </c>
       <c r="E1279" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1279" t="s">
         <v>1326</v>
@@ -31887,7 +31860,7 @@
         <v>960</v>
       </c>
       <c r="E1280" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1280" t="s">
         <v>1161</v>
@@ -31913,7 +31886,7 @@
         <v>962</v>
       </c>
       <c r="E1281" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1281" t="s">
         <v>1326</v>
@@ -32050,7 +32023,7 @@
         <v>962</v>
       </c>
       <c r="E1288" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1288" t="s">
         <v>488</v>
@@ -32211,7 +32184,7 @@
         <v>1011</v>
       </c>
       <c r="F1295" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G1295" t="s">
         <v>1326</v>
@@ -32759,7 +32732,7 @@
         <v>960</v>
       </c>
       <c r="E1323" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F1323" t="s">
         <v>1166</v>
@@ -32822,7 +32795,7 @@
         <v>961</v>
       </c>
       <c r="E1326" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1326" t="s">
         <v>1326</v>
@@ -32862,7 +32835,7 @@
         <v>961</v>
       </c>
       <c r="E1328" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1328" t="s">
         <v>1326</v>
@@ -32882,7 +32855,7 @@
         <v>960</v>
       </c>
       <c r="E1329" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1329" t="s">
         <v>1326</v>
@@ -32922,7 +32895,7 @@
         <v>961</v>
       </c>
       <c r="E1331" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1331" t="s">
         <v>1326</v>
@@ -33053,7 +33026,7 @@
         <v>962</v>
       </c>
       <c r="E1338" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1338" t="s">
         <v>1167</v>
@@ -33076,7 +33049,7 @@
         <v>961</v>
       </c>
       <c r="E1339" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1339" t="s">
         <v>520</v>
@@ -33180,7 +33153,7 @@
         <v>959</v>
       </c>
       <c r="E1343" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1343" t="s">
         <v>524</v>
@@ -33203,7 +33176,7 @@
         <v>961</v>
       </c>
       <c r="E1344" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1344" t="s">
         <v>525</v>
@@ -33419,7 +33392,7 @@
         <v>961</v>
       </c>
       <c r="E1356" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1356" t="s">
         <v>1326</v>
@@ -33459,7 +33432,7 @@
         <v>961</v>
       </c>
       <c r="E1358" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1358" t="s">
         <v>1326</v>
@@ -33479,7 +33452,7 @@
         <v>959</v>
       </c>
       <c r="E1359" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1359" t="s">
         <v>1326</v>
@@ -33570,7 +33543,7 @@
         <v>7010129</v>
       </c>
       <c r="C1364" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1364" t="s">
         <v>959</v>
@@ -33590,7 +33563,7 @@
         <v>7010157</v>
       </c>
       <c r="C1365" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1365" t="s">
         <v>961</v>
@@ -33610,7 +33583,7 @@
         <v>7010178</v>
       </c>
       <c r="C1366" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1366" t="s">
         <v>959</v>
@@ -33819,7 +33792,7 @@
         <v>961</v>
       </c>
       <c r="E1376" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1376" t="s">
         <v>1326</v>
@@ -33839,7 +33812,7 @@
         <v>961</v>
       </c>
       <c r="E1377" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1377" t="s">
         <v>1326</v>
@@ -33859,7 +33832,7 @@
         <v>961</v>
       </c>
       <c r="E1378" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1378" t="s">
         <v>1326</v>
@@ -33919,7 +33892,7 @@
         <v>961</v>
       </c>
       <c r="E1381" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1381" t="s">
         <v>1172</v>
@@ -34291,7 +34264,7 @@
         <v>961</v>
       </c>
       <c r="E1399" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1399" t="s">
         <v>548</v>
@@ -34448,7 +34421,7 @@
         <v>6836640</v>
       </c>
       <c r="C1407" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1407" t="s">
         <v>962</v>
@@ -34516,7 +34489,7 @@
         <v>6962295</v>
       </c>
       <c r="C1411" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1411" t="s">
         <v>962</v>
@@ -34582,7 +34555,7 @@
         <v>962</v>
       </c>
       <c r="E1414" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1414" t="s">
         <v>1326</v>
@@ -34619,7 +34592,7 @@
         <v>6865630</v>
       </c>
       <c r="C1416" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1416" t="s">
         <v>961</v>
@@ -34731,7 +34704,7 @@
         <v>6968932</v>
       </c>
       <c r="C1421" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1421" t="s">
         <v>961</v>
@@ -34840,7 +34813,7 @@
         <v>961</v>
       </c>
       <c r="E1426" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1426" t="s">
         <v>1178</v>
@@ -34978,7 +34951,7 @@
         <v>7021309</v>
       </c>
       <c r="C1432" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1432" t="s">
         <v>962</v>
@@ -35231,7 +35204,7 @@
         <v>962</v>
       </c>
       <c r="E1443" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1443" t="s">
         <v>1326</v>
@@ -35251,7 +35224,7 @@
         <v>961</v>
       </c>
       <c r="E1444" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1444" t="s">
         <v>1326</v>
@@ -35454,7 +35427,7 @@
         <v>6752942</v>
       </c>
       <c r="C1454" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1454" t="s">
         <v>962</v>
@@ -35574,7 +35547,7 @@
         <v>961</v>
       </c>
       <c r="E1460" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1460" t="s">
         <v>1326</v>
@@ -35745,7 +35718,7 @@
         <v>962</v>
       </c>
       <c r="E1469" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1469" t="s">
         <v>566</v>
@@ -35919,7 +35892,7 @@
         <v>962</v>
       </c>
       <c r="E1478" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1478" t="s">
         <v>14</v>
@@ -36202,7 +36175,7 @@
         <v>961</v>
       </c>
       <c r="E1492" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1492" t="s">
         <v>1326</v>
@@ -36307,7 +36280,7 @@
         <v>962</v>
       </c>
       <c r="E1498" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1498" t="s">
         <v>1326</v>
@@ -36456,7 +36429,7 @@
         <v>962</v>
       </c>
       <c r="E1505" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1505" t="s">
         <v>1326</v>
@@ -36499,7 +36472,7 @@
         <v>960</v>
       </c>
       <c r="E1507" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F1507" t="s">
         <v>188</v>
@@ -36772,7 +36745,7 @@
         <v>961</v>
       </c>
       <c r="E1519" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1519" t="s">
         <v>1184</v>
@@ -36789,7 +36762,7 @@
         <v>6991667</v>
       </c>
       <c r="C1520" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1520" t="s">
         <v>961</v>
@@ -36835,7 +36808,7 @@
         <v>961</v>
       </c>
       <c r="E1522" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1522" t="s">
         <v>137</v>
@@ -36858,7 +36831,7 @@
         <v>961</v>
       </c>
       <c r="E1523" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1523" t="s">
         <v>1326</v>
@@ -37103,7 +37076,7 @@
         <v>961</v>
       </c>
       <c r="E1536" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1536" t="s">
         <v>1326</v>
@@ -37163,7 +37136,7 @@
         <v>961</v>
       </c>
       <c r="E1539" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1539" t="s">
         <v>1326</v>
@@ -37249,7 +37222,7 @@
         <v>962</v>
       </c>
       <c r="E1543" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1543" t="s">
         <v>1326</v>
@@ -37461,7 +37434,7 @@
         <v>961</v>
       </c>
       <c r="E1553" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1553" t="s">
         <v>596</v>
@@ -37621,7 +37594,7 @@
         <v>961</v>
       </c>
       <c r="E1561" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1561" t="s">
         <v>1326</v>
@@ -37874,7 +37847,7 @@
         <v>1034</v>
       </c>
       <c r="F1572" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G1572" t="s">
         <v>1326</v>
@@ -37897,7 +37870,7 @@
         <v>961</v>
       </c>
       <c r="E1573" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1573" t="s">
         <v>1326</v>
@@ -37983,7 +37956,7 @@
         <v>962</v>
       </c>
       <c r="E1577" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1577" t="s">
         <v>1326</v>
@@ -38104,7 +38077,7 @@
         <v>962</v>
       </c>
       <c r="E1582" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1582" t="s">
         <v>1190</v>
@@ -38127,7 +38100,7 @@
         <v>962</v>
       </c>
       <c r="E1583" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1583" t="s">
         <v>1191</v>
@@ -38144,7 +38117,7 @@
         <v>6911912</v>
       </c>
       <c r="C1584" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1584" t="s">
         <v>961</v>
@@ -38364,7 +38337,7 @@
         <v>959</v>
       </c>
       <c r="E1595" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1595" t="s">
         <v>1194</v>
@@ -38495,7 +38468,7 @@
         <v>971</v>
       </c>
       <c r="F1602" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G1602" t="s">
         <v>1326</v>
@@ -38655,7 +38628,7 @@
         <v>962</v>
       </c>
       <c r="E1610" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1610" t="s">
         <v>1195</v>
@@ -38698,7 +38671,7 @@
         <v>6982283</v>
       </c>
       <c r="C1612" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1612" t="s">
         <v>959</v>
@@ -38779,7 +38752,7 @@
         <v>960</v>
       </c>
       <c r="E1615" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F1615" t="s">
         <v>624</v>
@@ -39074,7 +39047,7 @@
         <v>961</v>
       </c>
       <c r="E1629" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1629" t="s">
         <v>1326</v>
@@ -39202,7 +39175,7 @@
         <v>6940265</v>
       </c>
       <c r="C1636" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1636" t="s">
         <v>962</v>
@@ -39305,7 +39278,7 @@
         <v>7019333</v>
       </c>
       <c r="C1641" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1641" t="s">
         <v>961</v>
@@ -39325,7 +39298,7 @@
         <v>6906390</v>
       </c>
       <c r="C1642" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1642" t="s">
         <v>961</v>
@@ -39351,7 +39324,7 @@
         <v>961</v>
       </c>
       <c r="E1643" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1643" t="s">
         <v>1326</v>
@@ -39365,7 +39338,7 @@
         <v>7006787</v>
       </c>
       <c r="C1644" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1644" t="s">
         <v>961</v>
@@ -39591,7 +39564,7 @@
         <v>6937419</v>
       </c>
       <c r="C1655" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1655" t="s">
         <v>961</v>
@@ -39697,7 +39670,7 @@
         <v>961</v>
       </c>
       <c r="E1660" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1660" t="s">
         <v>1326</v>
@@ -39951,7 +39924,7 @@
         <v>962</v>
       </c>
       <c r="E1673" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1673" t="s">
         <v>1326</v>
@@ -40077,7 +40050,7 @@
         <v>6782466</v>
       </c>
       <c r="C1685" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1685" t="s">
         <v>962</v>
@@ -40269,7 +40242,7 @@
         <v>962</v>
       </c>
       <c r="E1694" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1694" t="s">
         <v>1201</v>
@@ -40335,7 +40308,7 @@
         <v>6862853</v>
       </c>
       <c r="C1697" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1697" t="s">
         <v>959</v>
@@ -40361,7 +40334,7 @@
         <v>961</v>
       </c>
       <c r="E1698" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1698" t="s">
         <v>1326</v>
@@ -40375,7 +40348,7 @@
         <v>6862599</v>
       </c>
       <c r="C1699" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1699" t="s">
         <v>961</v>
@@ -40421,7 +40394,7 @@
         <v>961</v>
       </c>
       <c r="E1701" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1701" t="s">
         <v>1326</v>
@@ -40441,7 +40414,7 @@
         <v>961</v>
       </c>
       <c r="E1702" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1702" t="s">
         <v>1326</v>
@@ -40560,7 +40533,7 @@
         <v>967</v>
       </c>
       <c r="F1709" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G1709" t="s">
         <v>1326</v>
@@ -40706,7 +40679,7 @@
         <v>6966447</v>
       </c>
       <c r="C1716" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1716" t="s">
         <v>959</v>
@@ -40772,7 +40745,7 @@
         <v>961</v>
       </c>
       <c r="E1719" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1719" t="s">
         <v>1326</v>
@@ -40809,7 +40782,7 @@
         <v>6945633</v>
       </c>
       <c r="C1721" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1721" t="s">
         <v>961</v>
@@ -41566,7 +41539,7 @@
         <v>962</v>
       </c>
       <c r="E1756" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1756" t="s">
         <v>1326</v>
@@ -41620,7 +41593,7 @@
         <v>7021818</v>
       </c>
       <c r="C1759" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1759" t="s">
         <v>961</v>
@@ -41732,7 +41705,7 @@
         <v>962</v>
       </c>
       <c r="E1764" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F1764" t="s">
         <v>1209</v>
@@ -41818,7 +41791,7 @@
         <v>962</v>
       </c>
       <c r="E1768" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1768" t="s">
         <v>1326</v>
@@ -41994,18 +41967,6 @@
       <c r="B1777">
         <v>6743430</v>
       </c>
-      <c r="C1777" t="s">
-        <v>656</v>
-      </c>
-      <c r="D1777" t="s">
-        <v>959</v>
-      </c>
-      <c r="E1777" t="s">
-        <v>971</v>
-      </c>
-      <c r="G1777" t="s">
-        <v>1326</v>
-      </c>
     </row>
     <row r="1778" spans="1:8">
       <c r="A1778" s="1">
@@ -42058,7 +42019,7 @@
         <v>6770132</v>
       </c>
       <c r="C1780" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D1780" t="s">
         <v>959</v>
@@ -42221,7 +42182,7 @@
         <v>960</v>
       </c>
       <c r="E1788" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1788" t="s">
         <v>1326</v>
@@ -42258,7 +42219,7 @@
         <v>6839261</v>
       </c>
       <c r="C1790" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D1790" t="s">
         <v>961</v>
@@ -42427,7 +42388,7 @@
         <v>962</v>
       </c>
       <c r="E1798" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1798" t="s">
         <v>1326</v>
@@ -42441,7 +42402,7 @@
         <v>6996018</v>
       </c>
       <c r="C1799" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D1799" t="s">
         <v>962</v>
@@ -42533,7 +42494,7 @@
         <v>6998433</v>
       </c>
       <c r="C1803" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D1803" t="s">
         <v>959</v>
@@ -42579,7 +42540,7 @@
         <v>6998441</v>
       </c>
       <c r="C1805" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1805" t="s">
         <v>962</v>
@@ -42588,7 +42549,7 @@
         <v>967</v>
       </c>
       <c r="F1805" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1805" t="s">
         <v>1326</v>
@@ -42608,7 +42569,7 @@
         <v>962</v>
       </c>
       <c r="E1806" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1806" t="s">
         <v>1326</v>
@@ -42622,13 +42583,13 @@
         <v>7021541</v>
       </c>
       <c r="C1807" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1807" t="s">
         <v>961</v>
       </c>
       <c r="E1807" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1807" t="s">
         <v>1326</v>
@@ -42685,7 +42646,7 @@
         <v>6982380</v>
       </c>
       <c r="C1810" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1810" t="s">
         <v>962</v>
@@ -42694,7 +42655,7 @@
         <v>1022</v>
       </c>
       <c r="F1810" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G1810" t="s">
         <v>1326</v>
@@ -42734,16 +42695,16 @@
         <v>6910064</v>
       </c>
       <c r="C1812" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D1812" t="s">
         <v>960</v>
       </c>
       <c r="E1812" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F1812" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G1812" t="s">
         <v>1326</v>
@@ -42911,7 +42872,7 @@
         <v>6952820</v>
       </c>
       <c r="C1821" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D1821" t="s">
         <v>959</v>
@@ -43011,7 +42972,7 @@
         <v>6766043</v>
       </c>
       <c r="C1826" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D1826" t="s">
         <v>959</v>
@@ -43040,7 +43001,7 @@
         <v>962</v>
       </c>
       <c r="E1827" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1827" t="s">
         <v>1326</v>
@@ -43054,16 +43015,16 @@
         <v>6871146</v>
       </c>
       <c r="C1828" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D1828" t="s">
         <v>962</v>
       </c>
       <c r="E1828" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1828" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G1828" t="s">
         <v>1326</v>
@@ -43080,7 +43041,7 @@
         <v>6917302</v>
       </c>
       <c r="C1829" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D1829" t="s">
         <v>959</v>
@@ -43103,7 +43064,7 @@
         <v>6836580</v>
       </c>
       <c r="C1830" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D1830" t="s">
         <v>961</v>
@@ -43131,7 +43092,7 @@
         <v>6942716</v>
       </c>
       <c r="C1832" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D1832" t="s">
         <v>959</v>
@@ -43157,7 +43118,7 @@
         <v>6796082</v>
       </c>
       <c r="C1833" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D1833" t="s">
         <v>962</v>
@@ -43166,7 +43127,7 @@
         <v>998</v>
       </c>
       <c r="F1833" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G1833" t="s">
         <v>1326</v>
@@ -43183,7 +43144,7 @@
         <v>6807204</v>
       </c>
       <c r="C1834" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D1834" t="s">
         <v>962</v>
@@ -43203,7 +43164,7 @@
         <v>7016917</v>
       </c>
       <c r="C1835" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D1835" t="s">
         <v>962</v>
@@ -43212,7 +43173,7 @@
         <v>1059</v>
       </c>
       <c r="F1835" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G1835" t="s">
         <v>1326</v>
@@ -43309,7 +43270,7 @@
         <v>6993753</v>
       </c>
       <c r="C1840" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D1840" t="s">
         <v>962</v>
@@ -43349,7 +43310,7 @@
         <v>6913980</v>
       </c>
       <c r="C1842" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D1842" t="s">
         <v>962</v>
@@ -43491,7 +43452,7 @@
         <v>6880922</v>
       </c>
       <c r="C1850" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D1850" t="s">
         <v>959</v>
@@ -43517,7 +43478,7 @@
         <v>6957338</v>
       </c>
       <c r="C1851" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D1851" t="s">
         <v>960</v>
@@ -43565,7 +43526,7 @@
         <v>6870505</v>
       </c>
       <c r="C1854" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1854" t="s">
         <v>962</v>
@@ -43574,7 +43535,7 @@
         <v>979</v>
       </c>
       <c r="F1854" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G1854" t="s">
         <v>1326</v>
@@ -43608,7 +43569,7 @@
         <v>6922811</v>
       </c>
       <c r="C1856" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D1856" t="s">
         <v>961</v>
@@ -43628,7 +43589,7 @@
         <v>7000573</v>
       </c>
       <c r="C1857" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D1857" t="s">
         <v>959</v>
@@ -43708,7 +43669,7 @@
         <v>6764936</v>
       </c>
       <c r="C1861" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D1861" t="s">
         <v>959</v>
@@ -43728,7 +43689,7 @@
         <v>6990498</v>
       </c>
       <c r="C1862" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D1862" t="s">
         <v>959</v>
@@ -43777,7 +43738,7 @@
         <v>6862878</v>
       </c>
       <c r="C1864" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D1864" t="s">
         <v>962</v>
@@ -43805,7 +43766,7 @@
         <v>6914677</v>
       </c>
       <c r="C1866" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D1866" t="s">
         <v>959</v>
@@ -44070,7 +44031,7 @@
         <v>7011699</v>
       </c>
       <c r="C1886" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D1886" t="s">
         <v>959</v>
@@ -44093,13 +44054,13 @@
         <v>6945543</v>
       </c>
       <c r="C1887" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D1887" t="s">
         <v>960</v>
       </c>
       <c r="E1887" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1887" t="s">
         <v>1326</v>
@@ -44139,16 +44100,16 @@
         <v>7011479</v>
       </c>
       <c r="C1889" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D1889" t="s">
         <v>960</v>
       </c>
       <c r="E1889" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F1889" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G1889" t="s">
         <v>1326</v>
@@ -44168,7 +44129,7 @@
         <v>961</v>
       </c>
       <c r="E1890" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1890" t="s">
         <v>889</v>
@@ -44188,7 +44149,7 @@
         <v>6953380</v>
       </c>
       <c r="C1891" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D1891" t="s">
         <v>962</v>
@@ -44214,7 +44175,7 @@
         <v>6895454</v>
       </c>
       <c r="C1892" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D1892" t="s">
         <v>962</v>
@@ -44240,7 +44201,7 @@
         <v>6821242</v>
       </c>
       <c r="C1893" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D1893" t="s">
         <v>962</v>
@@ -44263,7 +44224,7 @@
         <v>6907677</v>
       </c>
       <c r="C1894" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D1894" t="s">
         <v>962</v>
@@ -44292,7 +44253,7 @@
         <v>961</v>
       </c>
       <c r="E1895" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1895" t="s">
         <v>1326</v>
@@ -44317,13 +44278,13 @@
         <v>6966684</v>
       </c>
       <c r="C1897" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1897" t="s">
         <v>962</v>
       </c>
       <c r="E1897" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1897" t="s">
         <v>1326</v>
@@ -44357,7 +44318,7 @@
         <v>6918034</v>
       </c>
       <c r="C1899" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1899" t="s">
         <v>962</v>
@@ -44417,7 +44378,7 @@
         <v>6870460</v>
       </c>
       <c r="C1902" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D1902" t="s">
         <v>962</v>
@@ -44426,7 +44387,7 @@
         <v>973</v>
       </c>
       <c r="F1902" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G1902" t="s">
         <v>1326</v>
@@ -44451,7 +44412,7 @@
         <v>7009510</v>
       </c>
       <c r="C1904" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D1904" t="s">
         <v>961</v>
@@ -44503,7 +44464,7 @@
         <v>7009499</v>
       </c>
       <c r="C1906" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D1906" t="s">
         <v>959</v>
@@ -44512,7 +44473,7 @@
         <v>986</v>
       </c>
       <c r="F1906" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G1906" t="s">
         <v>1326</v>
@@ -44741,13 +44702,13 @@
         <v>6862670</v>
       </c>
       <c r="C1917" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1917" t="s">
         <v>961</v>
       </c>
       <c r="E1917" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1917" t="s">
         <v>1326</v>
@@ -44770,7 +44731,7 @@
         <v>984</v>
       </c>
       <c r="F1918" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1918" t="s">
         <v>1326</v>
@@ -44833,7 +44794,7 @@
         <v>962</v>
       </c>
       <c r="E1921" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1921" t="s">
         <v>1326</v>
@@ -44913,7 +44874,7 @@
         <v>962</v>
       </c>
       <c r="E1925" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G1925" t="s">
         <v>1326</v>
@@ -44955,7 +44916,7 @@
         <v>7013860</v>
       </c>
       <c r="C1928" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1928" t="s">
         <v>962</v>
@@ -45049,7 +45010,7 @@
         <v>961</v>
       </c>
       <c r="E1933" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1933" t="s">
         <v>1326</v>
@@ -45063,7 +45024,7 @@
         <v>6841440</v>
       </c>
       <c r="C1934" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1934" t="s">
         <v>960</v>
@@ -45086,13 +45047,13 @@
         <v>6360816</v>
       </c>
       <c r="C1935" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1935" t="s">
         <v>961</v>
       </c>
       <c r="E1935" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1935" t="s">
         <v>1326</v>
@@ -45126,7 +45087,7 @@
         <v>6980858</v>
       </c>
       <c r="C1937" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1937" t="s">
         <v>959</v>
@@ -45269,13 +45230,13 @@
         <v>6917303</v>
       </c>
       <c r="C1944" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1944" t="s">
         <v>962</v>
       </c>
       <c r="E1944" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1944" t="s">
         <v>1326</v>
@@ -45289,7 +45250,7 @@
         <v>6997599</v>
       </c>
       <c r="C1945" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1945" t="s">
         <v>961</v>
@@ -45309,7 +45270,7 @@
         <v>6918025</v>
       </c>
       <c r="C1946" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D1946" t="s">
         <v>960</v>
@@ -45329,7 +45290,7 @@
         <v>7020005</v>
       </c>
       <c r="C1947" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1947" t="s">
         <v>962</v>
@@ -45372,7 +45333,7 @@
         <v>6758825</v>
       </c>
       <c r="C1949" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D1949" t="s">
         <v>962</v>
@@ -45392,7 +45353,7 @@
         <v>6819443</v>
       </c>
       <c r="C1950" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D1950" t="s">
         <v>962</v>
@@ -45412,7 +45373,7 @@
         <v>6979914</v>
       </c>
       <c r="C1951" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D1951" t="s">
         <v>962</v>
@@ -45455,7 +45416,7 @@
         <v>7012142</v>
       </c>
       <c r="C1953" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1953" t="s">
         <v>959</v>
@@ -45481,7 +45442,7 @@
         <v>962</v>
       </c>
       <c r="E1954" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1954" t="s">
         <v>1326</v>
@@ -45495,7 +45456,7 @@
         <v>7019719</v>
       </c>
       <c r="C1955" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1955" t="s">
         <v>962</v>
@@ -45589,7 +45550,7 @@
         <v>6871826</v>
       </c>
       <c r="C1963" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1963" t="s">
         <v>962</v>
@@ -45612,7 +45573,7 @@
         <v>6871509</v>
       </c>
       <c r="C1964" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1964" t="s">
         <v>962</v>
@@ -45635,13 +45596,13 @@
         <v>6911843</v>
       </c>
       <c r="C1965" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1965" t="s">
         <v>961</v>
       </c>
       <c r="E1965" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1965" t="s">
         <v>1326</v>
@@ -45684,7 +45645,7 @@
         <v>6911782</v>
       </c>
       <c r="C1967" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1967" t="s">
         <v>959</v>
@@ -45707,13 +45668,13 @@
         <v>6981317</v>
       </c>
       <c r="C1968" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1968" t="s">
         <v>961</v>
       </c>
       <c r="E1968" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1968" t="s">
         <v>1326</v>
@@ -45753,7 +45714,7 @@
         <v>962</v>
       </c>
       <c r="E1970" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1970" t="s">
         <v>1326</v>
@@ -45767,7 +45728,7 @@
         <v>6800152</v>
       </c>
       <c r="C1971" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1971" t="s">
         <v>962</v>
@@ -45790,16 +45751,16 @@
         <v>7006362</v>
       </c>
       <c r="C1972" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1972" t="s">
         <v>962</v>
       </c>
       <c r="E1972" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F1972" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G1972" t="s">
         <v>1326</v>
@@ -45895,7 +45856,7 @@
         <v>6879714</v>
       </c>
       <c r="C1978" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1978" t="s">
         <v>961</v>
@@ -45958,7 +45919,7 @@
         <v>6974864</v>
       </c>
       <c r="C1981" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1981" t="s">
         <v>963</v>
@@ -46004,7 +45965,7 @@
         <v>6918975</v>
       </c>
       <c r="C1983" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D1983" t="s">
         <v>962</v>
@@ -46033,7 +45994,7 @@
         <v>961</v>
       </c>
       <c r="E1984" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1984" t="s">
         <v>1326</v>
@@ -46047,7 +46008,7 @@
         <v>7018600</v>
       </c>
       <c r="C1985" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1985" t="s">
         <v>962</v>
@@ -46075,7 +46036,7 @@
         <v>6950858</v>
       </c>
       <c r="C1987" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D1987" t="s">
         <v>959</v>
@@ -46084,7 +46045,7 @@
         <v>976</v>
       </c>
       <c r="F1987" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G1987" t="s">
         <v>1326</v>
@@ -46104,7 +46065,7 @@
         <v>962</v>
       </c>
       <c r="E1988" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G1988" t="s">
         <v>1326</v>
@@ -46144,7 +46105,7 @@
         <v>6835503</v>
       </c>
       <c r="C1990" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D1990" t="s">
         <v>962</v>
@@ -46187,7 +46148,7 @@
         <v>6998644</v>
       </c>
       <c r="C1992" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1992" t="s">
         <v>962</v>
@@ -46233,7 +46194,7 @@
         <v>6990595</v>
       </c>
       <c r="C1994" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1994" t="s">
         <v>962</v>
@@ -46242,7 +46203,7 @@
         <v>971</v>
       </c>
       <c r="F1994" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G1994" t="s">
         <v>1326</v>
@@ -46259,7 +46220,7 @@
         <v>6990652</v>
       </c>
       <c r="C1995" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1995" t="s">
         <v>962</v>
@@ -46279,7 +46240,7 @@
         <v>7006081</v>
       </c>
       <c r="C1996" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1996" t="s">
         <v>959</v>
@@ -46302,7 +46263,7 @@
         <v>7006094</v>
       </c>
       <c r="C1997" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1997" t="s">
         <v>962</v>
@@ -46311,7 +46272,7 @@
         <v>1010</v>
       </c>
       <c r="F1997" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G1997" t="s">
         <v>1326</v>
@@ -46328,7 +46289,7 @@
         <v>6990578</v>
       </c>
       <c r="C1998" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1998" t="s">
         <v>959</v>
@@ -46351,7 +46312,7 @@
         <v>6981360</v>
       </c>
       <c r="C1999" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1999" t="s">
         <v>959</v>
@@ -46374,7 +46335,7 @@
         <v>6981404</v>
       </c>
       <c r="C2000" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D2000" t="s">
         <v>959</v>
@@ -46397,13 +46358,13 @@
         <v>6886071</v>
       </c>
       <c r="C2001" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D2001" t="s">
         <v>961</v>
       </c>
       <c r="E2001" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2001" t="s">
         <v>1326</v>
@@ -46417,7 +46378,7 @@
         <v>6857737</v>
       </c>
       <c r="C2002" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D2002" t="s">
         <v>962</v>
@@ -46440,7 +46401,7 @@
         <v>6823405</v>
       </c>
       <c r="C2003" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D2003" t="s">
         <v>962</v>
@@ -46449,7 +46410,7 @@
         <v>967</v>
       </c>
       <c r="F2003" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2004" spans="1:8">
@@ -46460,16 +46421,16 @@
         <v>6798800</v>
       </c>
       <c r="C2004" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D2004" t="s">
         <v>961</v>
       </c>
       <c r="E2004" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2004" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G2004" t="s">
         <v>1326</v>
@@ -46483,7 +46444,7 @@
         <v>6794079</v>
       </c>
       <c r="C2005" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D2005" t="s">
         <v>962</v>
@@ -46492,7 +46453,7 @@
         <v>1034</v>
       </c>
       <c r="F2005" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G2005" t="s">
         <v>1326</v>
@@ -46509,7 +46470,7 @@
         <v>6794071</v>
       </c>
       <c r="C2006" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D2006" t="s">
         <v>959</v>
@@ -46518,7 +46479,7 @@
         <v>992</v>
       </c>
       <c r="F2006" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G2006" t="s">
         <v>1326</v>
@@ -46535,7 +46496,7 @@
         <v>7006096</v>
       </c>
       <c r="C2007" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D2007" t="s">
         <v>962</v>
@@ -46544,7 +46505,7 @@
         <v>1010</v>
       </c>
       <c r="F2007" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G2007" t="s">
         <v>1326</v>
@@ -46561,16 +46522,16 @@
         <v>6771887</v>
       </c>
       <c r="C2008" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D2008" t="s">
         <v>962</v>
       </c>
       <c r="E2008" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2008" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G2008" t="s">
         <v>1326</v>
@@ -46590,7 +46551,7 @@
         <v>961</v>
       </c>
       <c r="E2009" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2009" t="s">
         <v>1326</v>
@@ -46604,7 +46565,7 @@
         <v>7003378</v>
       </c>
       <c r="C2010" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D2010" t="s">
         <v>961</v>
@@ -46650,7 +46611,7 @@
         <v>7018244</v>
       </c>
       <c r="C2012" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D2012" t="s">
         <v>962</v>
@@ -46676,7 +46637,7 @@
         <v>962</v>
       </c>
       <c r="E2013" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2013" t="s">
         <v>14</v>
@@ -46693,13 +46654,13 @@
         <v>7007614</v>
       </c>
       <c r="C2014" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D2014" t="s">
         <v>962</v>
       </c>
       <c r="E2014" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2014" t="s">
         <v>1326</v>
@@ -46713,7 +46674,7 @@
         <v>6846836</v>
       </c>
       <c r="C2015" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2015" t="s">
         <v>962</v>
@@ -46753,13 +46714,13 @@
         <v>5825990</v>
       </c>
       <c r="C2017" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D2017" t="s">
         <v>960</v>
       </c>
       <c r="E2017" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2017" t="s">
         <v>1326</v>
@@ -46773,7 +46734,7 @@
         <v>7009630</v>
       </c>
       <c r="C2018" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D2018" t="s">
         <v>960</v>
@@ -46782,7 +46743,7 @@
         <v>969</v>
       </c>
       <c r="F2018" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G2018" t="s">
         <v>1326</v>
@@ -46796,7 +46757,7 @@
         <v>7018019</v>
       </c>
       <c r="C2019" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D2019" t="s">
         <v>961</v>
@@ -46816,7 +46777,7 @@
         <v>7018003</v>
       </c>
       <c r="C2020" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D2020" t="s">
         <v>962</v>
@@ -46839,7 +46800,7 @@
         <v>6988404</v>
       </c>
       <c r="C2021" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D2021" t="s">
         <v>959</v>
@@ -46862,7 +46823,7 @@
         <v>7008243</v>
       </c>
       <c r="C2022" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2022" t="s">
         <v>961</v>
@@ -46882,7 +46843,7 @@
         <v>6963167</v>
       </c>
       <c r="C2023" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D2023" t="s">
         <v>962</v>
@@ -46902,7 +46863,7 @@
         <v>6942885</v>
       </c>
       <c r="C2024" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D2024" t="s">
         <v>959</v>
@@ -46925,7 +46886,7 @@
         <v>6954201</v>
       </c>
       <c r="C2025" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D2025" t="s">
         <v>962</v>
@@ -46974,7 +46935,7 @@
         <v>962</v>
       </c>
       <c r="E2027" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2027" t="s">
         <v>1326</v>
@@ -46988,13 +46949,13 @@
         <v>6916260</v>
       </c>
       <c r="C2028" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D2028" t="s">
         <v>962</v>
       </c>
       <c r="E2028" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2028" t="s">
         <v>1326</v>
@@ -47096,7 +47057,7 @@
         <v>7008240</v>
       </c>
       <c r="C2034" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2034" t="s">
         <v>962</v>
@@ -47136,7 +47097,7 @@
         <v>6844489</v>
       </c>
       <c r="C2036" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D2036" t="s">
         <v>961</v>
@@ -47156,7 +47117,7 @@
         <v>6993728</v>
       </c>
       <c r="C2037" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D2037" t="s">
         <v>962</v>
@@ -47245,7 +47206,7 @@
         <v>962</v>
       </c>
       <c r="E2041" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2041" t="s">
         <v>1326</v>
@@ -47259,7 +47220,7 @@
         <v>6895479</v>
       </c>
       <c r="C2042" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D2042" t="s">
         <v>962</v>
@@ -47299,7 +47260,7 @@
         <v>7017355</v>
       </c>
       <c r="C2044" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2044" t="s">
         <v>962</v>
@@ -47325,7 +47286,7 @@
         <v>962</v>
       </c>
       <c r="E2045" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2045" t="s">
         <v>1326</v>
@@ -47538,7 +47499,7 @@
         <v>6984332</v>
       </c>
       <c r="C2057" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2057" t="s">
         <v>962</v>
@@ -47561,7 +47522,7 @@
         <v>6866786</v>
       </c>
       <c r="C2058" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D2058" t="s">
         <v>959</v>
@@ -47607,7 +47568,7 @@
         <v>962</v>
       </c>
       <c r="E2060" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2060" t="s">
         <v>1326</v>
@@ -47621,7 +47582,7 @@
         <v>7017340</v>
       </c>
       <c r="C2061" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D2061" t="s">
         <v>962</v>
@@ -47664,7 +47625,7 @@
         <v>7017290</v>
       </c>
       <c r="C2063" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D2063" t="s">
         <v>962</v>
@@ -47684,7 +47645,7 @@
         <v>6859037</v>
       </c>
       <c r="C2064" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D2064" t="s">
         <v>962</v>
@@ -47750,7 +47711,7 @@
         <v>6931699</v>
       </c>
       <c r="C2067" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D2067" t="s">
         <v>962</v>
@@ -47801,7 +47762,7 @@
         <v>6819140</v>
       </c>
       <c r="C2070" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D2070" t="s">
         <v>962</v>
@@ -47821,7 +47782,7 @@
         <v>6806775</v>
       </c>
       <c r="C2071" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D2071" t="s">
         <v>962</v>
@@ -47830,7 +47791,7 @@
         <v>990</v>
       </c>
       <c r="F2071" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G2071" t="s">
         <v>1326</v>
@@ -47913,13 +47874,13 @@
         <v>6961844</v>
       </c>
       <c r="C2075" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D2075" t="s">
         <v>961</v>
       </c>
       <c r="E2075" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2075" t="s">
         <v>1233</v>
@@ -47998,7 +47959,7 @@
         <v>6995249</v>
       </c>
       <c r="C2080" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D2080" t="s">
         <v>962</v>
@@ -48138,7 +48099,7 @@
         <v>6995227</v>
       </c>
       <c r="C2087" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D2087" t="s">
         <v>962</v>
@@ -48158,7 +48119,7 @@
         <v>6995209</v>
       </c>
       <c r="C2088" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2088" t="s">
         <v>962</v>
@@ -48201,7 +48162,7 @@
         <v>6909307</v>
       </c>
       <c r="C2090" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2090" t="s">
         <v>962</v>
@@ -48370,7 +48331,7 @@
         <v>961</v>
       </c>
       <c r="E2101" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2101" t="s">
         <v>1236</v>
@@ -48479,7 +48440,7 @@
         <v>962</v>
       </c>
       <c r="E2109" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2109" t="s">
         <v>1237</v>
@@ -48504,7 +48465,7 @@
         <v>6223761</v>
       </c>
       <c r="C2111" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D2111" t="s">
         <v>959</v>
@@ -48524,7 +48485,7 @@
         <v>6769642</v>
       </c>
       <c r="C2112" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D2112" t="s">
         <v>962</v>
@@ -48810,7 +48771,7 @@
         <v>6927351</v>
       </c>
       <c r="C2126" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D2126" t="s">
         <v>959</v>
@@ -48833,7 +48794,7 @@
         <v>7016081</v>
       </c>
       <c r="C2127" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D2127" t="s">
         <v>959</v>
@@ -48922,7 +48883,7 @@
         <v>7015903</v>
       </c>
       <c r="C2131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2131" t="s">
         <v>962</v>
@@ -48942,7 +48903,7 @@
         <v>6840140</v>
       </c>
       <c r="C2132" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D2132" t="s">
         <v>959</v>
@@ -48951,7 +48912,7 @@
         <v>973</v>
       </c>
       <c r="F2132" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G2132" t="s">
         <v>1326</v>
@@ -48968,7 +48929,7 @@
         <v>7015569</v>
       </c>
       <c r="C2133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2133" t="s">
         <v>962</v>
@@ -49169,7 +49130,7 @@
         <v>961</v>
       </c>
       <c r="E2145" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2145" t="s">
         <v>1326</v>
@@ -49183,7 +49144,7 @@
         <v>6994016</v>
       </c>
       <c r="C2146" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D2146" t="s">
         <v>962</v>
@@ -49203,7 +49164,7 @@
         <v>7015208</v>
       </c>
       <c r="C2147" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D2147" t="s">
         <v>962</v>
@@ -49231,7 +49192,7 @@
         <v>6795898</v>
       </c>
       <c r="C2149" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D2149" t="s">
         <v>959</v>
@@ -49254,7 +49215,7 @@
         <v>6993930</v>
       </c>
       <c r="C2150" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D2150" t="s">
         <v>962</v>
@@ -49274,7 +49235,7 @@
         <v>6990377</v>
       </c>
       <c r="C2151" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D2151" t="s">
         <v>962</v>
@@ -49314,7 +49275,7 @@
         <v>6990144</v>
       </c>
       <c r="C2153" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D2153" t="s">
         <v>962</v>
@@ -49374,7 +49335,7 @@
         <v>6793859</v>
       </c>
       <c r="C2156" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D2156" t="s">
         <v>962</v>
@@ -49447,7 +49408,7 @@
         <v>961</v>
       </c>
       <c r="E2161" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2161" t="s">
         <v>151</v>
@@ -49507,7 +49468,7 @@
         <v>6968087</v>
       </c>
       <c r="C2164" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2164" t="s">
         <v>961</v>
@@ -49561,7 +49522,7 @@
         <v>961</v>
       </c>
       <c r="E2167" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2167" t="s">
         <v>1326</v>
@@ -49621,7 +49582,7 @@
         <v>6855914</v>
       </c>
       <c r="C2170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2170" t="s">
         <v>959</v>
@@ -49644,7 +49605,7 @@
         <v>6758652</v>
       </c>
       <c r="C2171" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D2171" t="s">
         <v>959</v>
@@ -49701,13 +49662,13 @@
         <v>6842529</v>
       </c>
       <c r="C2174" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D2174" t="s">
         <v>962</v>
       </c>
       <c r="E2174" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2174" t="s">
         <v>90</v>
@@ -49724,7 +49685,7 @@
         <v>7014037</v>
       </c>
       <c r="C2175" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2175" t="s">
         <v>962</v>
@@ -49733,7 +49694,7 @@
         <v>1007</v>
       </c>
       <c r="F2175" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G2175" t="s">
         <v>1326</v>
@@ -49750,7 +49711,7 @@
         <v>6872126</v>
       </c>
       <c r="C2176" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D2176" t="s">
         <v>962</v>
@@ -49759,7 +49720,7 @@
         <v>971</v>
       </c>
       <c r="F2176" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G2176" t="s">
         <v>1326</v>
@@ -49839,7 +49800,7 @@
         <v>6990064</v>
       </c>
       <c r="C2180" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D2180" t="s">
         <v>962</v>
@@ -49862,7 +49823,7 @@
         <v>6958814</v>
       </c>
       <c r="C2181" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2181" t="s">
         <v>962</v>
@@ -49885,7 +49846,7 @@
         <v>6958630</v>
       </c>
       <c r="C2182" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D2182" t="s">
         <v>962</v>
@@ -50000,7 +49961,7 @@
         <v>6509437</v>
       </c>
       <c r="C2187" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D2187" t="s">
         <v>959</v>
@@ -50009,7 +49970,7 @@
         <v>985</v>
       </c>
       <c r="F2187" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G2187" t="s">
         <v>1326</v>
@@ -50029,7 +49990,7 @@
         <v>962</v>
       </c>
       <c r="E2188" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2188" t="s">
         <v>1326</v>
@@ -50203,7 +50164,7 @@
         <v>6842294</v>
       </c>
       <c r="C2197" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D2197" t="s">
         <v>959</v>
@@ -50229,7 +50190,7 @@
         <v>6834363</v>
       </c>
       <c r="C2198" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D2198" t="s">
         <v>959</v>
@@ -50255,7 +50216,7 @@
         <v>6834358</v>
       </c>
       <c r="C2199" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D2199" t="s">
         <v>959</v>
@@ -50301,7 +50262,7 @@
         <v>6892475</v>
       </c>
       <c r="C2201" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D2201" t="s">
         <v>959</v>
@@ -50324,7 +50285,7 @@
         <v>6872256</v>
       </c>
       <c r="C2202" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D2202" t="s">
         <v>962</v>
@@ -50347,7 +50308,7 @@
         <v>6832199</v>
       </c>
       <c r="C2203" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D2203" t="s">
         <v>959</v>
@@ -50376,7 +50337,7 @@
         <v>962</v>
       </c>
       <c r="E2204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2204" t="s">
         <v>1326</v>
@@ -50439,7 +50400,7 @@
         <v>962</v>
       </c>
       <c r="E2207" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2207" t="s">
         <v>1326</v>
@@ -50459,7 +50420,7 @@
         <v>962</v>
       </c>
       <c r="E2208" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2208" t="s">
         <v>1326</v>
@@ -50507,7 +50468,7 @@
         <v>6885600</v>
       </c>
       <c r="C2211" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D2211" t="s">
         <v>962</v>
@@ -50516,7 +50477,7 @@
         <v>981</v>
       </c>
       <c r="F2211" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G2211" t="s">
         <v>1326</v>
@@ -50533,7 +50494,7 @@
         <v>6865970</v>
       </c>
       <c r="C2212" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D2212" t="s">
         <v>959</v>
@@ -50579,7 +50540,7 @@
         <v>6793144</v>
       </c>
       <c r="C2214" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D2214" t="s">
         <v>959</v>
@@ -50588,7 +50549,7 @@
         <v>977</v>
       </c>
       <c r="F2214" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G2214" t="s">
         <v>1326</v>
@@ -50628,7 +50589,7 @@
         <v>6760941</v>
       </c>
       <c r="C2216" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D2216" t="s">
         <v>962</v>
@@ -50637,7 +50598,7 @@
         <v>967</v>
       </c>
       <c r="F2216" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G2216" t="s">
         <v>1326</v>
@@ -50651,7 +50612,7 @@
         <v>6743127</v>
       </c>
       <c r="C2217" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2217" t="s">
         <v>962</v>
@@ -50660,7 +50621,7 @@
         <v>967</v>
       </c>
       <c r="F2217" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G2217" t="s">
         <v>1326</v>
@@ -50768,7 +50729,7 @@
         <v>6895664</v>
       </c>
       <c r="C2223" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D2223" t="s">
         <v>959</v>
@@ -50814,7 +50775,7 @@
         <v>6895623</v>
       </c>
       <c r="C2225" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D2225" t="s">
         <v>959</v>
@@ -50938,7 +50899,7 @@
         <v>7012238</v>
       </c>
       <c r="C2233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D2233" t="s">
         <v>960</v>
@@ -50987,7 +50948,7 @@
         <v>6804956</v>
       </c>
       <c r="C2235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2235" t="s">
         <v>962</v>
@@ -51010,7 +50971,7 @@
         <v>6870566</v>
       </c>
       <c r="C2236" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D2236" t="s">
         <v>962</v>
@@ -51053,7 +51014,7 @@
         <v>6447276</v>
       </c>
       <c r="C2238" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D2238" t="s">
         <v>959</v>
@@ -51096,7 +51057,7 @@
         <v>7011342</v>
       </c>
       <c r="C2240" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D2240" t="s">
         <v>962</v>
@@ -51122,7 +51083,7 @@
         <v>4605128</v>
       </c>
       <c r="C2241" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2241" t="s">
         <v>961</v>
@@ -51185,7 +51146,7 @@
         <v>7011260</v>
       </c>
       <c r="C2244" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D2244" t="s">
         <v>959</v>
@@ -51248,7 +51209,7 @@
         <v>6799830</v>
       </c>
       <c r="C2247" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D2247" t="s">
         <v>962</v>
@@ -51271,7 +51232,7 @@
         <v>7010931</v>
       </c>
       <c r="C2248" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2248" t="s">
         <v>962</v>
@@ -51383,7 +51344,7 @@
         <v>6860153</v>
       </c>
       <c r="C2256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2256" t="s">
         <v>962</v>
@@ -51403,13 +51364,13 @@
         <v>6881199</v>
       </c>
       <c r="C2257" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2257" t="s">
         <v>962</v>
       </c>
       <c r="E2257" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2257" t="s">
         <v>1326</v>
@@ -51443,7 +51404,7 @@
         <v>6872149</v>
       </c>
       <c r="C2259" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D2259" t="s">
         <v>962</v>
@@ -51452,7 +51413,7 @@
         <v>968</v>
       </c>
       <c r="F2259" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G2259" t="s">
         <v>1326</v>
@@ -51466,7 +51427,7 @@
         <v>6995929</v>
       </c>
       <c r="C2260" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D2260" t="s">
         <v>962</v>
@@ -51489,7 +51450,7 @@
         <v>6930033</v>
       </c>
       <c r="C2261" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D2261" t="s">
         <v>962</v>
@@ -51610,7 +51571,7 @@
         <v>7009568</v>
       </c>
       <c r="C2266" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D2266" t="s">
         <v>959</v>
@@ -51627,7 +51588,7 @@
         <v>7009566</v>
       </c>
       <c r="C2267" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D2267" t="s">
         <v>959</v>
@@ -51636,7 +51597,7 @@
         <v>974</v>
       </c>
       <c r="F2267" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2268" spans="1:8">
@@ -51647,7 +51608,7 @@
         <v>7009564</v>
       </c>
       <c r="C2268" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D2268" t="s">
         <v>959</v>
@@ -51656,7 +51617,7 @@
         <v>974</v>
       </c>
       <c r="F2268" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2268" t="s">
         <v>1799</v>
@@ -51670,7 +51631,7 @@
         <v>6914534</v>
       </c>
       <c r="C2269" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D2269" t="s">
         <v>962</v>
@@ -51679,7 +51640,7 @@
         <v>967</v>
       </c>
       <c r="F2269" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G2269" t="s">
         <v>1326</v>
@@ -51724,7 +51685,7 @@
         <v>7009395</v>
       </c>
       <c r="C2272" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D2272" t="s">
         <v>962</v>
@@ -51744,7 +51705,7 @@
         <v>6931300</v>
       </c>
       <c r="C2273" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D2273" t="s">
         <v>961</v>
@@ -51764,7 +51725,7 @@
         <v>6931298</v>
       </c>
       <c r="C2274" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D2274" t="s">
         <v>962</v>
@@ -51784,7 +51745,7 @@
         <v>6931294</v>
       </c>
       <c r="C2275" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D2275" t="s">
         <v>962</v>
@@ -51804,7 +51765,7 @@
         <v>6931292</v>
       </c>
       <c r="C2276" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D2276" t="s">
         <v>962</v>
@@ -51824,7 +51785,7 @@
         <v>6931285</v>
       </c>
       <c r="C2277" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D2277" t="s">
         <v>962</v>
@@ -51864,7 +51825,7 @@
         <v>6931221</v>
       </c>
       <c r="C2279" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D2279" t="s">
         <v>962</v>
@@ -51873,7 +51834,7 @@
         <v>997</v>
       </c>
       <c r="F2279" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G2279" t="s">
         <v>1326</v>
@@ -51890,7 +51851,7 @@
         <v>6931203</v>
       </c>
       <c r="C2280" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D2280" t="s">
         <v>962</v>
@@ -51910,7 +51871,7 @@
         <v>6856117</v>
       </c>
       <c r="C2281" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D2281" t="s">
         <v>959</v>
@@ -51969,7 +51930,7 @@
         <v>6999177</v>
       </c>
       <c r="C2285" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D2285" t="s">
         <v>959</v>
@@ -51992,7 +51953,7 @@
         <v>7008476</v>
       </c>
       <c r="C2286" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2286" t="s">
         <v>961</v>
@@ -52032,7 +51993,7 @@
         <v>6931828</v>
       </c>
       <c r="C2288" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D2288" t="s">
         <v>959</v>
@@ -52078,7 +52039,7 @@
         <v>7008033</v>
       </c>
       <c r="C2290" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2290" t="s">
         <v>962</v>
@@ -52155,7 +52116,7 @@
         <v>961</v>
       </c>
       <c r="E2294" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2294" t="s">
         <v>1258</v>
@@ -52188,7 +52149,7 @@
         <v>6816336</v>
       </c>
       <c r="C2297" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D2297" t="s">
         <v>961</v>
@@ -52350,7 +52311,7 @@
         <v>6816374</v>
       </c>
       <c r="C2306" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D2306" t="s">
         <v>962</v>
@@ -52396,7 +52357,7 @@
         <v>6978245</v>
       </c>
       <c r="C2308" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D2308" t="s">
         <v>959</v>
@@ -52425,7 +52386,7 @@
         <v>962</v>
       </c>
       <c r="E2309" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2309" t="s">
         <v>1326</v>
@@ -52445,7 +52406,7 @@
         <v>962</v>
       </c>
       <c r="E2310" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2310" t="s">
         <v>1326</v>
@@ -52576,7 +52537,7 @@
         <v>960</v>
       </c>
       <c r="E2320" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2320" t="s">
         <v>1326</v>
@@ -52620,7 +52581,7 @@
         <v>961</v>
       </c>
       <c r="E2324" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2324" t="s">
         <v>1265</v>
@@ -52689,7 +52650,7 @@
         <v>7005288</v>
       </c>
       <c r="C2327" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D2327" t="s">
         <v>962</v>
@@ -52712,7 +52673,7 @@
         <v>6838109</v>
       </c>
       <c r="C2328" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D2328" t="s">
         <v>960</v>
@@ -52721,7 +52682,7 @@
         <v>989</v>
       </c>
       <c r="F2328" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G2328" t="s">
         <v>1326</v>
@@ -52735,7 +52696,7 @@
         <v>6758260</v>
       </c>
       <c r="C2329" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D2329" t="s">
         <v>962</v>
@@ -52744,7 +52705,7 @@
         <v>967</v>
       </c>
       <c r="F2329" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G2329" t="s">
         <v>1326</v>
@@ -52781,7 +52742,7 @@
         <v>6956076</v>
       </c>
       <c r="C2331" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D2331" t="s">
         <v>962</v>
@@ -52790,7 +52751,7 @@
         <v>989</v>
       </c>
       <c r="F2331" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G2331" t="s">
         <v>1326</v>
@@ -52804,7 +52765,7 @@
         <v>6906889</v>
       </c>
       <c r="C2332" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D2332" t="s">
         <v>962</v>
@@ -52870,7 +52831,7 @@
         <v>6954434</v>
       </c>
       <c r="C2335" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D2335" t="s">
         <v>962</v>
@@ -52893,7 +52854,7 @@
         <v>6953821</v>
       </c>
       <c r="C2336" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D2336" t="s">
         <v>962</v>
@@ -52936,13 +52897,13 @@
         <v>6824778</v>
       </c>
       <c r="C2338" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2338" t="s">
         <v>962</v>
       </c>
       <c r="E2338" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2338" t="s">
         <v>1326</v>
@@ -53082,7 +53043,7 @@
         <v>7001865</v>
       </c>
       <c r="C2345" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2345" t="s">
         <v>959</v>
@@ -53122,13 +53083,13 @@
         <v>6785431</v>
       </c>
       <c r="C2347" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D2347" t="s">
         <v>962</v>
       </c>
       <c r="E2347" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2347" t="s">
         <v>1272</v>
@@ -53208,13 +53169,13 @@
         <v>7000604</v>
       </c>
       <c r="C2351" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D2351" t="s">
         <v>962</v>
       </c>
       <c r="E2351" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2351" t="s">
         <v>1326</v>
@@ -53294,7 +53255,7 @@
         <v>6999840</v>
       </c>
       <c r="C2355" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D2355" t="s">
         <v>959</v>
@@ -53337,7 +53298,7 @@
         <v>6999617</v>
       </c>
       <c r="C2357" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D2357" t="s">
         <v>962</v>
@@ -53419,7 +53380,7 @@
         <v>6860012</v>
       </c>
       <c r="C2362" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D2362" t="s">
         <v>959</v>
@@ -53522,7 +53483,7 @@
         <v>6998151</v>
       </c>
       <c r="C2367" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D2367" t="s">
         <v>962</v>
@@ -53542,16 +53503,16 @@
         <v>6988738</v>
       </c>
       <c r="C2368" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D2368" t="s">
         <v>960</v>
       </c>
       <c r="E2368" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F2368" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G2368" t="s">
         <v>1326</v>
@@ -53571,7 +53532,7 @@
         <v>962</v>
       </c>
       <c r="E2369" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2369" t="s">
         <v>1326</v>
@@ -53585,7 +53546,7 @@
         <v>6986321</v>
       </c>
       <c r="C2370" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2370" t="s">
         <v>962</v>
@@ -53608,7 +53569,7 @@
         <v>6792016</v>
       </c>
       <c r="C2371" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D2371" t="s">
         <v>962</v>
@@ -53617,7 +53578,7 @@
         <v>967</v>
       </c>
       <c r="F2371" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G2371" t="s">
         <v>1326</v>
@@ -53631,7 +53592,7 @@
         <v>6997587</v>
       </c>
       <c r="C2372" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D2372" t="s">
         <v>962</v>
@@ -53654,7 +53615,7 @@
         <v>6748486</v>
       </c>
       <c r="C2373" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2373" t="s">
         <v>961</v>
@@ -53674,7 +53635,7 @@
         <v>6997434</v>
       </c>
       <c r="C2374" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D2374" t="s">
         <v>959</v>
@@ -53694,7 +53655,7 @@
         <v>6909434</v>
       </c>
       <c r="C2375" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2375" t="s">
         <v>959</v>
@@ -53720,7 +53681,7 @@
         <v>961</v>
       </c>
       <c r="E2376" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2376" t="s">
         <v>1326</v>
@@ -53757,7 +53718,7 @@
         <v>6842306</v>
       </c>
       <c r="C2378" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D2378" t="s">
         <v>962</v>
@@ -53766,7 +53727,7 @@
         <v>967</v>
       </c>
       <c r="F2378" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G2378" t="s">
         <v>1326</v>
@@ -53806,7 +53767,7 @@
         <v>960</v>
       </c>
       <c r="E2380" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2380" t="s">
         <v>1326</v>
@@ -53828,7 +53789,7 @@
         <v>6943640</v>
       </c>
       <c r="C2382" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2382" t="s">
         <v>962</v>
@@ -53868,7 +53829,7 @@
         <v>6769537</v>
       </c>
       <c r="C2384" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D2384" t="s">
         <v>959</v>
@@ -53877,7 +53838,7 @@
         <v>977</v>
       </c>
       <c r="F2384" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G2384" t="s">
         <v>1326</v>
@@ -53891,7 +53852,7 @@
         <v>6817976</v>
       </c>
       <c r="C2385" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D2385" t="s">
         <v>962</v>
@@ -53917,7 +53878,7 @@
         <v>6947928</v>
       </c>
       <c r="C2386" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2386" t="s">
         <v>959</v>
@@ -53971,7 +53932,7 @@
         <v>6994667</v>
       </c>
       <c r="C2389" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D2389" t="s">
         <v>962</v>
@@ -53997,7 +53958,7 @@
         <v>962</v>
       </c>
       <c r="E2390" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2390" t="s">
         <v>1326</v>
@@ -54057,7 +54018,7 @@
         <v>962</v>
       </c>
       <c r="E2393" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2393" t="s">
         <v>39</v>
@@ -54211,7 +54172,7 @@
         <v>6768424</v>
       </c>
       <c r="C2401" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D2401" t="s">
         <v>961</v>
@@ -54231,7 +54192,7 @@
         <v>6957642</v>
       </c>
       <c r="C2402" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D2402" t="s">
         <v>962</v>
@@ -54342,7 +54303,7 @@
         <v>6930814</v>
       </c>
       <c r="C2408" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2408" t="s">
         <v>959</v>
@@ -54385,7 +54346,7 @@
         <v>6984352</v>
       </c>
       <c r="C2410" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D2410" t="s">
         <v>959</v>
@@ -54411,7 +54372,7 @@
         <v>6963059</v>
       </c>
       <c r="C2411" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2411" t="s">
         <v>959</v>
@@ -54431,7 +54392,7 @@
         <v>6889520</v>
       </c>
       <c r="C2412" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D2412" t="s">
         <v>961</v>
@@ -54454,7 +54415,7 @@
         <v>6991319</v>
       </c>
       <c r="C2413" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2413" t="s">
         <v>962</v>
@@ -54474,7 +54435,7 @@
         <v>6991314</v>
       </c>
       <c r="C2414" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2414" t="s">
         <v>962</v>
@@ -54629,7 +54590,7 @@
         <v>6604300</v>
       </c>
       <c r="C2421" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2421" t="s">
         <v>959</v>
@@ -54649,7 +54610,7 @@
         <v>6967984</v>
       </c>
       <c r="C2422" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D2422" t="s">
         <v>959</v>
@@ -54678,7 +54639,7 @@
         <v>962</v>
       </c>
       <c r="E2423" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2423" t="s">
         <v>47</v>
@@ -54698,7 +54659,7 @@
         <v>6759094</v>
       </c>
       <c r="C2424" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D2424" t="s">
         <v>959</v>
@@ -54724,7 +54685,7 @@
         <v>6934258</v>
       </c>
       <c r="C2425" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2425" t="s">
         <v>962</v>
@@ -54770,7 +54731,7 @@
         <v>961</v>
       </c>
       <c r="E2427" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2427" t="s">
         <v>1326</v>
@@ -54784,7 +54745,7 @@
         <v>6913359</v>
       </c>
       <c r="C2428" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2428" t="s">
         <v>962</v>
@@ -54804,7 +54765,7 @@
         <v>6989177</v>
       </c>
       <c r="C2429" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2429" t="s">
         <v>961</v>
@@ -54847,7 +54808,7 @@
         <v>6838362</v>
       </c>
       <c r="C2431" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D2431" t="s">
         <v>959</v>
@@ -54925,7 +54886,7 @@
         <v>961</v>
       </c>
       <c r="E2434" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2434" t="s">
         <v>1326</v>
@@ -54945,7 +54906,7 @@
         <v>961</v>
       </c>
       <c r="E2435" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2435" t="s">
         <v>1326</v>
@@ -55002,13 +54963,13 @@
         <v>6971547</v>
       </c>
       <c r="C2438" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D2438" t="s">
         <v>962</v>
       </c>
       <c r="E2438" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2438" t="s">
         <v>1326</v>
@@ -55128,7 +55089,7 @@
         <v>6985163</v>
       </c>
       <c r="C2444" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D2444" t="s">
         <v>962</v>
@@ -55151,7 +55112,7 @@
         <v>6748515</v>
       </c>
       <c r="C2445" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2445" t="s">
         <v>961</v>
@@ -55257,7 +55218,7 @@
         <v>6953590</v>
       </c>
       <c r="C2450" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D2450" t="s">
         <v>959</v>
@@ -55280,7 +55241,7 @@
         <v>6811300</v>
       </c>
       <c r="C2451" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D2451" t="s">
         <v>959</v>
@@ -55323,7 +55284,7 @@
         <v>6920839</v>
       </c>
       <c r="C2453" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D2453" t="s">
         <v>962</v>
@@ -55363,7 +55324,7 @@
         <v>6959144</v>
       </c>
       <c r="C2455" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D2455" t="s">
         <v>962</v>
@@ -55386,7 +55347,7 @@
         <v>6836797</v>
       </c>
       <c r="C2456" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D2456" t="s">
         <v>962</v>
@@ -55409,7 +55370,7 @@
         <v>6790290</v>
       </c>
       <c r="C2457" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D2457" t="s">
         <v>959</v>
@@ -55484,7 +55445,7 @@
         <v>962</v>
       </c>
       <c r="E2460" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2460" t="s">
         <v>82</v>
@@ -55524,7 +55485,7 @@
         <v>6811370</v>
       </c>
       <c r="C2462" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2462" t="s">
         <v>962</v>
@@ -55544,7 +55505,7 @@
         <v>6841531</v>
       </c>
       <c r="C2463" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2463" t="s">
         <v>962</v>
@@ -55716,7 +55677,7 @@
         <v>6760415</v>
       </c>
       <c r="C2471" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D2471" t="s">
         <v>962</v>
@@ -55772,7 +55733,7 @@
         <v>6590597</v>
       </c>
       <c r="C2475" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D2475" t="s">
         <v>959</v>
@@ -55867,7 +55828,7 @@
         <v>961</v>
       </c>
       <c r="E2479" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2479" t="s">
         <v>1326</v>
@@ -55881,7 +55842,7 @@
         <v>6979182</v>
       </c>
       <c r="C2480" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D2480" t="s">
         <v>962</v>
@@ -55901,7 +55862,7 @@
         <v>6971871</v>
       </c>
       <c r="C2481" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2481" t="s">
         <v>962</v>
@@ -55947,7 +55908,7 @@
         <v>962</v>
       </c>
       <c r="E2483" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2483" t="s">
         <v>1326</v>
@@ -55967,7 +55928,7 @@
         <v>961</v>
       </c>
       <c r="E2484" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2484" t="s">
         <v>1326</v>
@@ -56124,7 +56085,7 @@
         <v>961</v>
       </c>
       <c r="E2492" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2492" t="s">
         <v>1326</v>
@@ -56158,13 +56119,13 @@
         <v>6975509</v>
       </c>
       <c r="C2494" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2494" t="s">
         <v>962</v>
       </c>
       <c r="E2494" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2494" t="s">
         <v>1326</v>
@@ -56198,7 +56159,7 @@
         <v>6963244</v>
       </c>
       <c r="C2496" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D2496" t="s">
         <v>959</v>
@@ -56273,7 +56234,7 @@
         <v>6973929</v>
       </c>
       <c r="C2499" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2499" t="s">
         <v>962</v>
@@ -56302,7 +56263,7 @@
         <v>982</v>
       </c>
       <c r="F2500" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2500" t="s">
         <v>1326</v>
@@ -56347,7 +56308,7 @@
         <v>6973416</v>
       </c>
       <c r="C2503" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D2503" t="s">
         <v>962</v>
@@ -56356,7 +56317,7 @@
         <v>973</v>
       </c>
       <c r="F2503" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2503" t="s">
         <v>1326</v>
@@ -56373,7 +56334,7 @@
         <v>6872365</v>
       </c>
       <c r="C2504" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D2504" t="s">
         <v>961</v>
@@ -56399,7 +56360,7 @@
         <v>962</v>
       </c>
       <c r="E2505" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2505" t="s">
         <v>1326</v>
@@ -56464,7 +56425,7 @@
         <v>6971859</v>
       </c>
       <c r="C2509" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2509" t="s">
         <v>962</v>
@@ -56527,7 +56488,7 @@
         <v>6971769</v>
       </c>
       <c r="C2512" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D2512" t="s">
         <v>962</v>
@@ -56547,7 +56508,7 @@
         <v>6965192</v>
       </c>
       <c r="C2513" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D2513" t="s">
         <v>962</v>
@@ -56573,7 +56534,7 @@
         <v>6971579</v>
       </c>
       <c r="C2514" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D2514" t="s">
         <v>959</v>
@@ -56613,7 +56574,7 @@
         <v>6966012</v>
       </c>
       <c r="C2516" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D2516" t="s">
         <v>962</v>
@@ -56659,7 +56620,7 @@
         <v>6965808</v>
       </c>
       <c r="C2518" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D2518" t="s">
         <v>962</v>
@@ -56685,7 +56646,7 @@
         <v>6971139</v>
       </c>
       <c r="C2519" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D2519" t="s">
         <v>959</v>
@@ -56705,7 +56666,7 @@
         <v>6971070</v>
       </c>
       <c r="C2520" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D2520" t="s">
         <v>962</v>
@@ -56725,7 +56686,7 @@
         <v>6971044</v>
       </c>
       <c r="C2521" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D2521" t="s">
         <v>959</v>
@@ -56765,7 +56726,7 @@
         <v>6970653</v>
       </c>
       <c r="C2523" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D2523" t="s">
         <v>959</v>
@@ -56817,7 +56778,7 @@
         <v>962</v>
       </c>
       <c r="E2525" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2525" t="s">
         <v>1326</v>
@@ -56900,7 +56861,7 @@
         <v>961</v>
       </c>
       <c r="E2529" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2529" t="s">
         <v>14</v>
@@ -56968,7 +56929,7 @@
         <v>6932229</v>
       </c>
       <c r="C2533" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D2533" t="s">
         <v>962</v>
@@ -57051,7 +57012,7 @@
         <v>961</v>
       </c>
       <c r="E2537" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2537" t="s">
         <v>1326</v>
@@ -57125,7 +57086,7 @@
         <v>961</v>
       </c>
       <c r="E2541" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2541" t="s">
         <v>1326</v>
@@ -57139,7 +57100,7 @@
         <v>6965277</v>
       </c>
       <c r="C2542" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D2542" t="s">
         <v>962</v>
@@ -57162,7 +57123,7 @@
         <v>6875845</v>
       </c>
       <c r="C2543" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D2543" t="s">
         <v>961</v>
@@ -57202,7 +57163,7 @@
         <v>6837757</v>
       </c>
       <c r="C2545" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2545" t="s">
         <v>962</v>
@@ -57308,7 +57269,7 @@
         <v>961</v>
       </c>
       <c r="E2550" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2550" t="s">
         <v>1326</v>
@@ -57325,7 +57286,7 @@
         <v>6875930</v>
       </c>
       <c r="C2551" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D2551" t="s">
         <v>959</v>
@@ -57374,7 +57335,7 @@
         <v>962</v>
       </c>
       <c r="E2553" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2553" t="s">
         <v>1326</v>
@@ -57425,7 +57386,7 @@
         <v>6828422</v>
       </c>
       <c r="C2556" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2556" t="s">
         <v>959</v>
@@ -57445,7 +57406,7 @@
         <v>6815302</v>
       </c>
       <c r="C2557" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2557" t="s">
         <v>962</v>
@@ -57471,7 +57432,7 @@
         <v>961</v>
       </c>
       <c r="E2558" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2558" t="s">
         <v>1326</v>
@@ -57485,7 +57446,7 @@
         <v>6915937</v>
       </c>
       <c r="C2559" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2559" t="s">
         <v>962</v>
@@ -57505,7 +57466,7 @@
         <v>6958283</v>
       </c>
       <c r="C2560" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D2560" t="s">
         <v>962</v>
@@ -57554,7 +57515,7 @@
         <v>6957883</v>
       </c>
       <c r="C2562" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D2562" t="s">
         <v>959</v>
@@ -57580,7 +57541,7 @@
         <v>6957651</v>
       </c>
       <c r="C2563" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D2563" t="s">
         <v>962</v>
@@ -57606,7 +57567,7 @@
         <v>6957278</v>
       </c>
       <c r="C2564" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D2564" t="s">
         <v>962</v>
@@ -57632,7 +57593,7 @@
         <v>6957047</v>
       </c>
       <c r="C2565" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D2565" t="s">
         <v>959</v>
@@ -57718,7 +57679,7 @@
         <v>6955774</v>
       </c>
       <c r="C2569" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D2569" t="s">
         <v>962</v>
@@ -57781,7 +57742,7 @@
         <v>6758046</v>
       </c>
       <c r="C2572" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2572" t="s">
         <v>962</v>
@@ -57844,7 +57805,7 @@
         <v>6833700</v>
       </c>
       <c r="C2575" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D2575" t="s">
         <v>966</v>
@@ -57864,7 +57825,7 @@
         <v>6935666</v>
       </c>
       <c r="C2576" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D2576" t="s">
         <v>962</v>
@@ -57939,7 +57900,7 @@
         <v>967</v>
       </c>
       <c r="F2579" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2579" t="s">
         <v>1326</v>
@@ -58036,7 +57997,7 @@
         <v>6893539</v>
       </c>
       <c r="C2584" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2584" t="s">
         <v>959</v>
@@ -58219,13 +58180,13 @@
         <v>6945371</v>
       </c>
       <c r="C2593" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D2593" t="s">
         <v>962</v>
       </c>
       <c r="E2593" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2593" t="s">
         <v>1297</v>
@@ -58242,7 +58203,7 @@
         <v>6945191</v>
       </c>
       <c r="C2594" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D2594" t="s">
         <v>962</v>
@@ -58265,16 +58226,16 @@
         <v>6945184</v>
       </c>
       <c r="C2595" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D2595" t="s">
         <v>961</v>
       </c>
       <c r="E2595" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2595" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G2595" t="s">
         <v>1326</v>
@@ -58311,7 +58272,7 @@
         <v>6852548</v>
       </c>
       <c r="C2597" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D2597" t="s">
         <v>962</v>
@@ -58334,7 +58295,7 @@
         <v>6935337</v>
       </c>
       <c r="C2598" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D2598" t="s">
         <v>959</v>
@@ -58377,7 +58338,7 @@
         <v>6942972</v>
       </c>
       <c r="C2600" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D2600" t="s">
         <v>961</v>
@@ -58566,7 +58527,7 @@
         <v>961</v>
       </c>
       <c r="E2609" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2609" t="s">
         <v>1326</v>
@@ -58580,7 +58541,7 @@
         <v>6911538</v>
       </c>
       <c r="C2610" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D2610" t="s">
         <v>962</v>
@@ -58649,7 +58610,7 @@
         <v>6869606</v>
       </c>
       <c r="C2613" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D2613" t="s">
         <v>962</v>
@@ -58658,7 +58619,7 @@
         <v>979</v>
       </c>
       <c r="F2613" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G2613" t="s">
         <v>1326</v>
@@ -58680,7 +58641,7 @@
         <v>6807572</v>
       </c>
       <c r="C2615" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2615" t="s">
         <v>959</v>
@@ -58706,7 +58667,7 @@
         <v>6912060</v>
       </c>
       <c r="C2616" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D2616" t="s">
         <v>959</v>
@@ -58856,7 +58817,7 @@
         <v>961</v>
       </c>
       <c r="E2625" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2625" t="s">
         <v>1326</v>
@@ -58910,7 +58871,7 @@
         <v>6765999</v>
       </c>
       <c r="C2628" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2628" t="s">
         <v>959</v>
@@ -58939,7 +58900,7 @@
         <v>961</v>
       </c>
       <c r="E2629" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2629" t="s">
         <v>1326</v>
@@ -58953,7 +58914,7 @@
         <v>6870899</v>
       </c>
       <c r="C2630" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D2630" t="s">
         <v>961</v>
@@ -58962,7 +58923,7 @@
         <v>979</v>
       </c>
       <c r="F2630" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G2630" t="s">
         <v>1326</v>
@@ -58985,7 +58946,7 @@
         <v>961</v>
       </c>
       <c r="E2631" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2631" t="s">
         <v>1326</v>
@@ -59005,7 +58966,7 @@
         <v>961</v>
       </c>
       <c r="E2632" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2632" t="s">
         <v>1326</v>
@@ -59113,7 +59074,7 @@
         <v>6931347</v>
       </c>
       <c r="C2638" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2638" t="s">
         <v>959</v>
@@ -59133,7 +59094,7 @@
         <v>6931275</v>
       </c>
       <c r="C2639" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D2639" t="s">
         <v>962</v>
@@ -59153,7 +59114,7 @@
         <v>6752391</v>
       </c>
       <c r="C2640" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D2640" t="s">
         <v>962</v>
@@ -59162,7 +59123,7 @@
         <v>979</v>
       </c>
       <c r="F2640" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G2640" t="s">
         <v>1326</v>
@@ -59179,7 +59140,7 @@
         <v>6929982</v>
       </c>
       <c r="C2641" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D2641" t="s">
         <v>962</v>
@@ -59188,7 +59149,7 @@
         <v>971</v>
       </c>
       <c r="F2641" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G2641" t="s">
         <v>1326</v>
@@ -59222,7 +59183,7 @@
         <v>6929909</v>
       </c>
       <c r="C2643" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D2643" t="s">
         <v>959</v>
@@ -59348,7 +59309,7 @@
         <v>6928278</v>
       </c>
       <c r="C2649" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D2649" t="s">
         <v>962</v>
@@ -59357,7 +59318,7 @@
         <v>973</v>
       </c>
       <c r="F2649" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G2649" t="s">
         <v>1326</v>
@@ -59374,7 +59335,7 @@
         <v>6766327</v>
       </c>
       <c r="C2650" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D2650" t="s">
         <v>962</v>
@@ -59431,7 +59392,7 @@
         <v>6927507</v>
       </c>
       <c r="C2653" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D2653" t="s">
         <v>962</v>
@@ -59440,7 +59401,7 @@
         <v>990</v>
       </c>
       <c r="F2653" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G2653" t="s">
         <v>1326</v>
@@ -59460,7 +59421,7 @@
         <v>959</v>
       </c>
       <c r="E2654" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2654" t="s">
         <v>1326</v>
@@ -59474,7 +59435,7 @@
         <v>6875850</v>
       </c>
       <c r="C2655" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D2655" t="s">
         <v>962</v>
@@ -59537,7 +59498,7 @@
         <v>6918755</v>
       </c>
       <c r="C2658" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D2658" t="s">
         <v>959</v>
@@ -59643,7 +59604,7 @@
         <v>6836767</v>
       </c>
       <c r="C2663" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D2663" t="s">
         <v>962</v>
@@ -59761,7 +59722,7 @@
         <v>962</v>
       </c>
       <c r="E2668" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2668" t="s">
         <v>1326</v>
@@ -59806,7 +59767,7 @@
         <v>6799605</v>
       </c>
       <c r="C2671" t="s">
-        <v>656</v>
+        <v>887</v>
       </c>
       <c r="D2671" t="s">
         <v>959</v>
@@ -60062,7 +60023,7 @@
         <v>961</v>
       </c>
       <c r="E2685" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2685" t="s">
         <v>1326</v>
@@ -60082,7 +60043,7 @@
         <v>961</v>
       </c>
       <c r="E2686" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2686" t="s">
         <v>1326</v>
@@ -60102,7 +60063,7 @@
         <v>962</v>
       </c>
       <c r="E2687" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2687" t="s">
         <v>891</v>
@@ -60153,7 +60114,7 @@
         <v>961</v>
       </c>
       <c r="E2690" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2690" t="s">
         <v>1326</v>
@@ -60247,7 +60208,7 @@
         <v>6911921</v>
       </c>
       <c r="C2695" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2695" t="s">
         <v>960</v>
@@ -60408,7 +60369,7 @@
         <v>6864495</v>
       </c>
       <c r="C2702" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2702" t="s">
         <v>962</v>
@@ -60465,7 +60426,7 @@
         <v>962</v>
       </c>
       <c r="E2705" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2705" t="s">
         <v>1326</v>
@@ -60519,7 +60480,7 @@
         <v>961</v>
       </c>
       <c r="E2708" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2708" t="s">
         <v>1326</v>
@@ -60559,7 +60520,7 @@
         <v>961</v>
       </c>
       <c r="E2710" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2710" t="s">
         <v>1326</v>
@@ -60613,13 +60574,13 @@
         <v>6817403</v>
       </c>
       <c r="C2713" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2713" t="s">
         <v>962</v>
       </c>
       <c r="E2713" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2713" t="s">
         <v>1326</v>
@@ -60728,7 +60689,7 @@
         <v>6903348</v>
       </c>
       <c r="C2718" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D2718" t="s">
         <v>959</v>
@@ -60737,7 +60698,7 @@
         <v>990</v>
       </c>
       <c r="F2718" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G2718" t="s">
         <v>1326</v>
@@ -60777,7 +60738,7 @@
         <v>6856013</v>
       </c>
       <c r="C2720" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2720" t="s">
         <v>962</v>
@@ -60803,7 +60764,7 @@
         <v>962</v>
       </c>
       <c r="E2721" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2721" t="s">
         <v>1326</v>
@@ -60868,13 +60829,13 @@
         <v>2367327</v>
       </c>
       <c r="C2725" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2725" t="s">
         <v>961</v>
       </c>
       <c r="E2725" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2725" t="s">
         <v>1326</v>
@@ -60888,7 +60849,7 @@
         <v>6898480</v>
       </c>
       <c r="C2726" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D2726" t="s">
         <v>962</v>
@@ -60986,7 +60947,7 @@
         <v>961</v>
       </c>
       <c r="E2730" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2730" t="s">
         <v>1326</v>
@@ -61167,7 +61128,7 @@
         <v>6830037</v>
       </c>
       <c r="C2738" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2738" t="s">
         <v>959</v>
@@ -61360,7 +61321,7 @@
         <v>961</v>
       </c>
       <c r="E2749" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2749" t="s">
         <v>1326</v>
@@ -61720,7 +61681,7 @@
         <v>961</v>
       </c>
       <c r="E2767" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2767" t="s">
         <v>1326</v>
@@ -61760,7 +61721,7 @@
         <v>961</v>
       </c>
       <c r="E2769" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2769" t="s">
         <v>1313</v>
@@ -61834,7 +61795,7 @@
         <v>6874335</v>
       </c>
       <c r="C2773" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2773" t="s">
         <v>961</v>
@@ -61860,7 +61821,7 @@
         <v>962</v>
       </c>
       <c r="E2774" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2774" t="s">
         <v>1315</v>
@@ -62043,7 +62004,7 @@
         <v>961</v>
       </c>
       <c r="E2783" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2783" t="s">
         <v>1326</v>
@@ -62109,7 +62070,7 @@
         <v>959</v>
       </c>
       <c r="E2786" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F2786" t="s">
         <v>927</v>
@@ -62129,7 +62090,7 @@
         <v>6839412</v>
       </c>
       <c r="C2787" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2787" t="s">
         <v>959</v>
@@ -62149,7 +62110,7 @@
         <v>6865162</v>
       </c>
       <c r="C2788" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2788" t="s">
         <v>961</v>
@@ -62169,7 +62130,7 @@
         <v>6865142</v>
       </c>
       <c r="C2789" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2789" t="s">
         <v>961</v>
@@ -62212,13 +62173,13 @@
         <v>6758872</v>
       </c>
       <c r="C2791" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2791" t="s">
         <v>960</v>
       </c>
       <c r="E2791" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2791" t="s">
         <v>1326</v>
@@ -62304,7 +62265,7 @@
         <v>962</v>
       </c>
       <c r="E2795" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2795" t="s">
         <v>1326</v>
@@ -62324,7 +62285,7 @@
         <v>962</v>
       </c>
       <c r="E2796" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2796" t="s">
         <v>1326</v>
@@ -62429,7 +62390,7 @@
         <v>6852790</v>
       </c>
       <c r="C2802" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2802" t="s">
         <v>962</v>
@@ -62529,7 +62490,7 @@
         <v>6847589</v>
       </c>
       <c r="C2807" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2807" t="s">
         <v>962</v>
@@ -62549,13 +62510,13 @@
         <v>6852536</v>
       </c>
       <c r="C2808" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2808" t="s">
         <v>961</v>
       </c>
       <c r="E2808" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2808" t="s">
         <v>1326</v>
@@ -62575,7 +62536,7 @@
         <v>962</v>
       </c>
       <c r="E2809" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2809" t="s">
         <v>1326</v>
@@ -62769,7 +62730,7 @@
         <v>962</v>
       </c>
       <c r="E2819" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2819" t="s">
         <v>1326</v>
@@ -62789,7 +62750,7 @@
         <v>961</v>
       </c>
       <c r="E2820" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2820" t="s">
         <v>1326</v>
@@ -63096,7 +63057,7 @@
         <v>961</v>
       </c>
       <c r="E2837" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2837" t="s">
         <v>1319</v>
@@ -63159,7 +63120,7 @@
         <v>960</v>
       </c>
       <c r="E2840" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2840" t="s">
         <v>1326</v>
@@ -63375,21 +63336,6 @@
       <c r="B2851">
         <v>6744089</v>
       </c>
-      <c r="C2851" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2851" t="s">
-        <v>962</v>
-      </c>
-      <c r="E2851" t="s">
-        <v>967</v>
-      </c>
-      <c r="G2851" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H2851" t="s">
-        <v>1897</v>
-      </c>
     </row>
     <row r="2852" spans="1:8">
       <c r="A2852" s="1">
@@ -63405,7 +63351,7 @@
         <v>962</v>
       </c>
       <c r="E2852" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2852" t="s">
         <v>945</v>
@@ -63431,13 +63377,13 @@
         <v>971</v>
       </c>
       <c r="F2853" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2853" t="s">
         <v>1326</v>
       </c>
       <c r="H2853" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2854" spans="1:8">
@@ -63454,7 +63400,7 @@
         <v>961</v>
       </c>
       <c r="E2854" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2854" t="s">
         <v>1326</v>
@@ -63511,7 +63457,7 @@
         <v>1326</v>
       </c>
       <c r="H2857" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="2858" spans="1:8">
@@ -63522,7 +63468,7 @@
         <v>6803179</v>
       </c>
       <c r="C2858" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2858" t="s">
         <v>962</v>
@@ -63556,7 +63502,7 @@
         <v>960</v>
       </c>
       <c r="E2860" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2860" t="s">
         <v>948</v>
@@ -63662,7 +63608,7 @@
         <v>6781605</v>
       </c>
       <c r="C2865" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2865" t="s">
         <v>962</v>
@@ -63708,7 +63654,7 @@
         <v>6798281</v>
       </c>
       <c r="C2867" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2867" t="s">
         <v>959</v>
@@ -63794,7 +63740,7 @@
         <v>962</v>
       </c>
       <c r="E2871" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2871" t="s">
         <v>1326</v>
@@ -63814,7 +63760,7 @@
         <v>962</v>
       </c>
       <c r="E2872" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2872" t="s">
         <v>1326</v>
@@ -63880,7 +63826,7 @@
         <v>961</v>
       </c>
       <c r="E2875" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F2875" t="s">
         <v>951</v>
@@ -63912,7 +63858,7 @@
         <v>1326</v>
       </c>
       <c r="H2876" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2877" spans="1:8">
@@ -63989,7 +63935,7 @@
         <v>1326</v>
       </c>
       <c r="H2880" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2881" spans="1:8">
@@ -64000,7 +63946,7 @@
         <v>6782076</v>
       </c>
       <c r="C2881" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D2881" t="s">
         <v>959</v>
@@ -64094,7 +64040,7 @@
         <v>1326</v>
       </c>
       <c r="H2886" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="2887" spans="1:8">
@@ -64117,7 +64063,7 @@
         <v>1326</v>
       </c>
       <c r="H2887" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="2888" spans="1:8">
@@ -64128,7 +64074,7 @@
         <v>6774669</v>
       </c>
       <c r="C2888" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2888" t="s">
         <v>962</v>
@@ -64295,7 +64241,7 @@
         <v>1326</v>
       </c>
       <c r="H2898" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="2899" spans="1:8">
@@ -64306,7 +64252,7 @@
         <v>6628255</v>
       </c>
       <c r="C2899" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2899" t="s">
         <v>962</v>
@@ -64369,7 +64315,7 @@
         <v>1326</v>
       </c>
       <c r="H2902" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="2903" spans="1:8">
@@ -64386,7 +64332,7 @@
         <v>962</v>
       </c>
       <c r="E2903" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2903" t="s">
         <v>1326</v>
@@ -64415,7 +64361,7 @@
         <v>1326</v>
       </c>
       <c r="H2904" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="2905" spans="1:8">
@@ -64454,7 +64400,7 @@
         <v>6745228</v>
       </c>
       <c r="C2907" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D2907" t="s">
         <v>962</v>
@@ -64489,18 +64435,6 @@
       <c r="B2910">
         <v>6743910</v>
       </c>
-      <c r="C2910" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2910" t="s">
-        <v>959</v>
-      </c>
-      <c r="E2910" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G2910" t="s">
-        <v>1326</v>
-      </c>
     </row>
     <row r="2911" spans="1:8">
       <c r="A2911" s="1">
@@ -64572,7 +64506,7 @@
         <v>962</v>
       </c>
       <c r="E2918" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2918" t="s">
         <v>1326</v>
@@ -64680,7 +64614,7 @@
         <v>961</v>
       </c>
       <c r="E2930" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2930" t="s">
         <v>1326</v>
@@ -64700,7 +64634,7 @@
         <v>962</v>
       </c>
       <c r="E2931" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G2931" t="s">
         <v>1326</v>
